--- a/lang/zh/headTags.xlsx
+++ b/lang/zh/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1170</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1171</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2282">
   <si>
     <t>en</t>
   </si>
@@ -1865,6 +1865,12 @@
   </si>
   <si>
     <t>爆炸</t>
+  </si>
+  <si>
+    <t>Eye</t>
+  </si>
+  <si>
+    <t>眼睛</t>
   </si>
   <si>
     <t>Eyepatch</t>
@@ -7203,7 +7209,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1170"/>
+  <dimension ref="A1:B1171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -9749,12 +9755,12 @@
         <v>620</v>
       </c>
       <c r="B317" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="B318" t="s">
         <v>622</v>
@@ -9853,12 +9859,12 @@
         <v>645</v>
       </c>
       <c r="B330" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="331" spans="1:2">
       <c r="A331" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B331" t="s">
         <v>647</v>
@@ -10925,20 +10931,20 @@
         <v>912</v>
       </c>
       <c r="B464" t="s">
-        <v>619</v>
+        <v>913</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B465" t="s">
-        <v>913</v>
+        <v>621</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B466" t="s">
         <v>915</v>
@@ -11165,15 +11171,15 @@
         <v>970</v>
       </c>
       <c r="B494" t="s">
-        <v>963</v>
+        <v>971</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B495" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -11373,15 +11379,15 @@
         <v>1021</v>
       </c>
       <c r="B520" t="s">
-        <v>281</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B521" t="s">
-        <v>1023</v>
+        <v>281</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -11421,15 +11427,15 @@
         <v>1032</v>
       </c>
       <c r="B526" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B527" t="s">
         <v>1033</v>
-      </c>
-      <c r="B527" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -11605,28 +11611,28 @@
         <v>1077</v>
       </c>
       <c r="B549" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B550" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B551" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B552" t="s">
         <v>1081</v>
@@ -11637,12 +11643,12 @@
         <v>1082</v>
       </c>
       <c r="B553" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B554" t="s">
         <v>1084</v>
@@ -11941,12 +11947,12 @@
         <v>1157</v>
       </c>
       <c r="B591" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B592" t="s">
         <v>1159</v>
@@ -12269,12 +12275,12 @@
         <v>1238</v>
       </c>
       <c r="B632" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B633" t="s">
         <v>1240</v>
@@ -13493,12 +13499,12 @@
         <v>1543</v>
       </c>
       <c r="B785" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="B786" t="s">
         <v>1545</v>
@@ -13525,15 +13531,15 @@
         <v>1550</v>
       </c>
       <c r="B789" t="s">
-        <v>959</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B790" t="s">
-        <v>1552</v>
+        <v>961</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -13541,20 +13547,20 @@
         <v>1553</v>
       </c>
       <c r="B791" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="B792" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B793" t="s">
         <v>1556</v>
@@ -13573,12 +13579,12 @@
         <v>1559</v>
       </c>
       <c r="B795" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B796" t="s">
         <v>1561</v>
@@ -13877,15 +13883,15 @@
         <v>1634</v>
       </c>
       <c r="B833" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B834" t="s">
         <v>1635</v>
-      </c>
-      <c r="B834" t="s">
-        <v>1636</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -13941,23 +13947,23 @@
         <v>1649</v>
       </c>
       <c r="B841" t="s">
-        <v>1601</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B842" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B843" t="s">
-        <v>1652</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -14085,28 +14091,28 @@
         <v>1683</v>
       </c>
       <c r="B859" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B860" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B861" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="B862" t="s">
         <v>1687</v>
@@ -14221,12 +14227,12 @@
         <v>1714</v>
       </c>
       <c r="B876" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B877" t="s">
         <v>1716</v>
@@ -14269,12 +14275,12 @@
         <v>1725</v>
       </c>
       <c r="B882" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B883" t="s">
         <v>1727</v>
@@ -14509,20 +14515,20 @@
         <v>1784</v>
       </c>
       <c r="B912" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="B913" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="B914" t="s">
         <v>1787</v>
@@ -14645,15 +14651,15 @@
         <v>1816</v>
       </c>
       <c r="B929" t="s">
-        <v>959</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="B930" t="s">
-        <v>1818</v>
+        <v>961</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -14901,12 +14907,12 @@
         <v>1879</v>
       </c>
       <c r="B961" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
     </row>
     <row r="962" spans="1:2">
       <c r="A962" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="B962" t="s">
         <v>1881</v>
@@ -14917,12 +14923,12 @@
         <v>1882</v>
       </c>
       <c r="B963" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="B964" t="s">
         <v>1884</v>
@@ -15045,15 +15051,15 @@
         <v>1913</v>
       </c>
       <c r="B979" t="s">
-        <v>1908</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="980" spans="1:2">
       <c r="A980" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="B980" t="s">
-        <v>1915</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="981" spans="1:2">
@@ -15165,15 +15171,15 @@
         <v>1942</v>
       </c>
       <c r="B994" t="s">
-        <v>1941</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="995" spans="1:2">
       <c r="A995" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B995" t="s">
         <v>1943</v>
-      </c>
-      <c r="B995" t="s">
-        <v>1944</v>
       </c>
     </row>
     <row r="996" spans="1:2">
@@ -15213,15 +15219,15 @@
         <v>1953</v>
       </c>
       <c r="B1000" t="s">
-        <v>254</v>
+        <v>1954</v>
       </c>
     </row>
     <row r="1001" spans="1:2">
       <c r="A1001" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="B1001" t="s">
-        <v>1955</v>
+        <v>254</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
@@ -15317,12 +15323,12 @@
         <v>1978</v>
       </c>
       <c r="B1013" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
     </row>
     <row r="1014" spans="1:2">
       <c r="A1014" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="B1014" t="s">
         <v>1980</v>
@@ -15397,12 +15403,12 @@
         <v>1997</v>
       </c>
       <c r="B1023" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="1024" spans="1:2">
       <c r="A1024" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="B1024" t="s">
         <v>1999</v>
@@ -15829,15 +15835,15 @@
         <v>2104</v>
       </c>
       <c r="B1077" t="s">
-        <v>524</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="1078" spans="1:2">
       <c r="A1078" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="B1078" t="s">
-        <v>2106</v>
+        <v>524</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
@@ -15909,15 +15915,15 @@
         <v>2123</v>
       </c>
       <c r="B1087" t="s">
-        <v>2122</v>
+        <v>2124</v>
       </c>
     </row>
     <row r="1088" spans="1:2">
       <c r="A1088" t="s">
+        <v>2125</v>
+      </c>
+      <c r="B1088" t="s">
         <v>2124</v>
-      </c>
-      <c r="B1088" t="s">
-        <v>2125</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
@@ -16045,12 +16051,12 @@
         <v>2156</v>
       </c>
       <c r="B1104" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
     </row>
     <row r="1105" spans="1:2">
       <c r="A1105" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="B1105" t="s">
         <v>2158</v>
@@ -16061,12 +16067,12 @@
         <v>2159</v>
       </c>
       <c r="B1106" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="B1107" t="s">
         <v>2161</v>
@@ -16261,15 +16267,15 @@
         <v>2208</v>
       </c>
       <c r="B1131" t="s">
-        <v>2207</v>
+        <v>2209</v>
       </c>
     </row>
     <row r="1132" spans="1:2">
       <c r="A1132" t="s">
+        <v>2210</v>
+      </c>
+      <c r="B1132" t="s">
         <v>2209</v>
-      </c>
-      <c r="B1132" t="s">
-        <v>2210</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
@@ -16285,12 +16291,12 @@
         <v>2213</v>
       </c>
       <c r="B1134" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="B1135" t="s">
         <v>2215</v>
@@ -16429,20 +16435,20 @@
         <v>2248</v>
       </c>
       <c r="B1152" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
     </row>
     <row r="1153" spans="1:2">
       <c r="A1153" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="B1153" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="B1154" t="s">
         <v>2251</v>
@@ -16453,12 +16459,12 @@
         <v>2252</v>
       </c>
       <c r="B1155" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="B1156" t="s">
         <v>2254</v>
@@ -16485,12 +16491,12 @@
         <v>2259</v>
       </c>
       <c r="B1159" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="B1160" t="s">
         <v>2261</v>
@@ -16501,12 +16507,12 @@
         <v>2262</v>
       </c>
       <c r="B1161" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="B1162" t="s">
         <v>2264</v>
@@ -16565,19 +16571,27 @@
         <v>2277</v>
       </c>
       <c r="B1169" t="s">
-        <v>68</v>
+        <v>2278</v>
       </c>
     </row>
     <row r="1170" spans="1:2">
       <c r="A1170" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="B1170" t="s">
-        <v>2279</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:2">
+      <c r="A1171" t="s">
+        <v>2280</v>
+      </c>
+      <c r="B1171" t="s">
+        <v>2281</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1170"/>
+  <autoFilter ref="A1:B1171"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/zh/headTags.xlsx
+++ b/lang/zh/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1171</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1172</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2284">
   <si>
     <t>en</t>
   </si>
@@ -5504,6 +5504,12 @@
   </si>
   <si>
     <t>七宗罪</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>巨人之影</t>
   </si>
   <si>
     <t>Shadows of Mordor</t>
@@ -7209,7 +7215,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1171"/>
+  <dimension ref="A1:B1172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -14915,12 +14921,12 @@
         <v>1881</v>
       </c>
       <c r="B962" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="B963" t="s">
         <v>1883</v>
@@ -14931,12 +14937,12 @@
         <v>1884</v>
       </c>
       <c r="B964" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="B965" t="s">
         <v>1886</v>
@@ -15059,15 +15065,15 @@
         <v>1915</v>
       </c>
       <c r="B980" t="s">
-        <v>1910</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="B981" t="s">
-        <v>1917</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="982" spans="1:2">
@@ -15179,15 +15185,15 @@
         <v>1944</v>
       </c>
       <c r="B995" t="s">
-        <v>1943</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B996" t="s">
         <v>1945</v>
-      </c>
-      <c r="B996" t="s">
-        <v>1946</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -15227,15 +15233,15 @@
         <v>1955</v>
       </c>
       <c r="B1001" t="s">
-        <v>254</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="B1002" t="s">
-        <v>1957</v>
+        <v>254</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
@@ -15331,12 +15337,12 @@
         <v>1980</v>
       </c>
       <c r="B1014" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B1015" t="s">
         <v>1982</v>
@@ -15411,12 +15417,12 @@
         <v>1999</v>
       </c>
       <c r="B1024" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B1025" t="s">
         <v>2001</v>
@@ -15843,15 +15849,15 @@
         <v>2106</v>
       </c>
       <c r="B1078" t="s">
-        <v>524</v>
+        <v>2107</v>
       </c>
     </row>
     <row r="1079" spans="1:2">
       <c r="A1079" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="B1079" t="s">
-        <v>2108</v>
+        <v>524</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
@@ -15923,15 +15929,15 @@
         <v>2125</v>
       </c>
       <c r="B1088" t="s">
-        <v>2124</v>
+        <v>2126</v>
       </c>
     </row>
     <row r="1089" spans="1:2">
       <c r="A1089" t="s">
+        <v>2127</v>
+      </c>
+      <c r="B1089" t="s">
         <v>2126</v>
-      </c>
-      <c r="B1089" t="s">
-        <v>2127</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
@@ -16059,12 +16065,12 @@
         <v>2158</v>
       </c>
       <c r="B1105" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="1106" spans="1:2">
       <c r="A1106" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="B1106" t="s">
         <v>2160</v>
@@ -16075,12 +16081,12 @@
         <v>2161</v>
       </c>
       <c r="B1107" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="B1108" t="s">
         <v>2163</v>
@@ -16275,15 +16281,15 @@
         <v>2210</v>
       </c>
       <c r="B1132" t="s">
-        <v>2209</v>
+        <v>2211</v>
       </c>
     </row>
     <row r="1133" spans="1:2">
       <c r="A1133" t="s">
+        <v>2212</v>
+      </c>
+      <c r="B1133" t="s">
         <v>2211</v>
-      </c>
-      <c r="B1133" t="s">
-        <v>2212</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
@@ -16299,12 +16305,12 @@
         <v>2215</v>
       </c>
       <c r="B1135" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="B1136" t="s">
         <v>2217</v>
@@ -16443,20 +16449,20 @@
         <v>2250</v>
       </c>
       <c r="B1153" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
     </row>
     <row r="1154" spans="1:2">
       <c r="A1154" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="B1154" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="B1155" t="s">
         <v>2253</v>
@@ -16467,12 +16473,12 @@
         <v>2254</v>
       </c>
       <c r="B1156" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="B1157" t="s">
         <v>2256</v>
@@ -16499,12 +16505,12 @@
         <v>2261</v>
       </c>
       <c r="B1160" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="B1161" t="s">
         <v>2263</v>
@@ -16515,12 +16521,12 @@
         <v>2264</v>
       </c>
       <c r="B1162" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="B1163" t="s">
         <v>2266</v>
@@ -16579,19 +16585,27 @@
         <v>2279</v>
       </c>
       <c r="B1170" t="s">
-        <v>68</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="1171" spans="1:2">
       <c r="A1171" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="B1171" t="s">
-        <v>2281</v>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:2">
+      <c r="A1172" t="s">
+        <v>2282</v>
+      </c>
+      <c r="B1172" t="s">
+        <v>2283</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B1171"/>
+  <autoFilter ref="A1:B1172"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/zh/headTags.xlsx
+++ b/lang/zh/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1173</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1174</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2288">
   <si>
     <t>en</t>
   </si>
@@ -4382,6 +4382,12 @@
   </si>
   <si>
     <t>真人快打</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
+  </si>
+  <si>
+    <t>混乱坐骑</t>
   </si>
   <si>
     <t>Mouthwashing</t>
@@ -7221,7 +7227,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1173"/>
+  <dimension ref="A1:B1174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -13511,12 +13517,12 @@
         <v>1543</v>
       </c>
       <c r="B785" t="s">
-        <v>1543</v>
+        <v>1544</v>
       </c>
     </row>
     <row r="786" spans="1:2">
       <c r="A786" t="s">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="B786" t="s">
         <v>1545</v>
@@ -13543,15 +13549,15 @@
         <v>1550</v>
       </c>
       <c r="B789" t="s">
-        <v>959</v>
+        <v>1551</v>
       </c>
     </row>
     <row r="790" spans="1:2">
       <c r="A790" t="s">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="B790" t="s">
-        <v>1552</v>
+        <v>959</v>
       </c>
     </row>
     <row r="791" spans="1:2">
@@ -13559,20 +13565,20 @@
         <v>1553</v>
       </c>
       <c r="B791" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="B792" t="s">
-        <v>1554</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B793" t="s">
         <v>1556</v>
@@ -13591,12 +13597,12 @@
         <v>1559</v>
       </c>
       <c r="B795" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="796" spans="1:2">
       <c r="A796" t="s">
-        <v>1560</v>
+        <v>1561</v>
       </c>
       <c r="B796" t="s">
         <v>1561</v>
@@ -13895,15 +13901,15 @@
         <v>1634</v>
       </c>
       <c r="B833" t="s">
-        <v>1633</v>
+        <v>1635</v>
       </c>
     </row>
     <row r="834" spans="1:2">
       <c r="A834" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B834" t="s">
         <v>1635</v>
-      </c>
-      <c r="B834" t="s">
-        <v>1636</v>
       </c>
     </row>
     <row r="835" spans="1:2">
@@ -13959,23 +13965,23 @@
         <v>1649</v>
       </c>
       <c r="B841" t="s">
-        <v>1601</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="842" spans="1:2">
       <c r="A842" t="s">
-        <v>1650</v>
+        <v>1651</v>
       </c>
       <c r="B842" t="s">
-        <v>1601</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="B843" t="s">
-        <v>1652</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="844" spans="1:2">
@@ -14103,28 +14109,28 @@
         <v>1683</v>
       </c>
       <c r="B859" t="s">
-        <v>1683</v>
+        <v>1684</v>
       </c>
     </row>
     <row r="860" spans="1:2">
       <c r="A860" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="B860" t="s">
-        <v>1684</v>
+        <v>1685</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="B861" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="B862" t="s">
         <v>1687</v>
@@ -14239,12 +14245,12 @@
         <v>1714</v>
       </c>
       <c r="B876" t="s">
-        <v>1714</v>
+        <v>1715</v>
       </c>
     </row>
     <row r="877" spans="1:2">
       <c r="A877" t="s">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="B877" t="s">
         <v>1716</v>
@@ -14287,12 +14293,12 @@
         <v>1725</v>
       </c>
       <c r="B882" t="s">
-        <v>1725</v>
+        <v>1726</v>
       </c>
     </row>
     <row r="883" spans="1:2">
       <c r="A883" t="s">
-        <v>1726</v>
+        <v>1727</v>
       </c>
       <c r="B883" t="s">
         <v>1727</v>
@@ -14527,20 +14533,20 @@
         <v>1784</v>
       </c>
       <c r="B912" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
     </row>
     <row r="913" spans="1:2">
       <c r="A913" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="B913" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="B914" t="s">
         <v>1787</v>
@@ -14663,15 +14669,15 @@
         <v>1816</v>
       </c>
       <c r="B929" t="s">
-        <v>959</v>
+        <v>1817</v>
       </c>
     </row>
     <row r="930" spans="1:2">
       <c r="A930" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="B930" t="s">
-        <v>1818</v>
+        <v>959</v>
       </c>
     </row>
     <row r="931" spans="1:2">
@@ -14927,12 +14933,12 @@
         <v>1881</v>
       </c>
       <c r="B962" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
     </row>
     <row r="963" spans="1:2">
       <c r="A963" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="B963" t="s">
         <v>1883</v>
@@ -14943,12 +14949,12 @@
         <v>1884</v>
       </c>
       <c r="B964" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="B965" t="s">
         <v>1886</v>
@@ -15071,15 +15077,15 @@
         <v>1915</v>
       </c>
       <c r="B980" t="s">
-        <v>1910</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="981" spans="1:2">
       <c r="A981" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="B981" t="s">
-        <v>1917</v>
+        <v>1912</v>
       </c>
     </row>
     <row r="982" spans="1:2">
@@ -15191,15 +15197,15 @@
         <v>1944</v>
       </c>
       <c r="B995" t="s">
-        <v>1943</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="996" spans="1:2">
       <c r="A996" t="s">
+        <v>1946</v>
+      </c>
+      <c r="B996" t="s">
         <v>1945</v>
-      </c>
-      <c r="B996" t="s">
-        <v>1946</v>
       </c>
     </row>
     <row r="997" spans="1:2">
@@ -15239,15 +15245,15 @@
         <v>1955</v>
       </c>
       <c r="B1001" t="s">
-        <v>254</v>
+        <v>1956</v>
       </c>
     </row>
     <row r="1002" spans="1:2">
       <c r="A1002" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="B1002" t="s">
-        <v>1957</v>
+        <v>254</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
@@ -15343,12 +15349,12 @@
         <v>1980</v>
       </c>
       <c r="B1014" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
     </row>
     <row r="1015" spans="1:2">
       <c r="A1015" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="B1015" t="s">
         <v>1982</v>
@@ -15423,12 +15429,12 @@
         <v>1999</v>
       </c>
       <c r="B1024" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="1025" spans="1:2">
       <c r="A1025" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="B1025" t="s">
         <v>2001</v>
@@ -15863,15 +15869,15 @@
         <v>2108</v>
       </c>
       <c r="B1079" t="s">
-        <v>524</v>
+        <v>2109</v>
       </c>
     </row>
     <row r="1080" spans="1:2">
       <c r="A1080" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="B1080" t="s">
-        <v>2110</v>
+        <v>524</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
@@ -15943,15 +15949,15 @@
         <v>2127</v>
       </c>
       <c r="B1089" t="s">
-        <v>2126</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="1090" spans="1:2">
       <c r="A1090" t="s">
+        <v>2129</v>
+      </c>
+      <c r="B1090" t="s">
         <v>2128</v>
-      </c>
-      <c r="B1090" t="s">
-        <v>2129</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
@@ -16079,12 +16085,12 @@
         <v>2160</v>
       </c>
       <c r="B1106" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="1107" spans="1:2">
       <c r="A1107" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="B1107" t="s">
         <v>2162</v>
@@ -16095,12 +16101,12 @@
         <v>2163</v>
       </c>
       <c r="B1108" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="B1109" t="s">
         <v>2165</v>
@@ -16295,15 +16301,15 @@
         <v>2212</v>
       </c>
       <c r="B1133" t="s">
-        <v>2211</v>
+        <v>2213</v>
       </c>
     </row>
     <row r="1134" spans="1:2">
       <c r="A1134" t="s">
+        <v>2214</v>
+      </c>
+      <c r="B1134" t="s">
         <v>2213</v>
-      </c>
-      <c r="B1134" t="s">
-        <v>2214</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
@@ -16319,12 +16325,12 @@
         <v>2217</v>
       </c>
       <c r="B1136" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="B1137" t="s">
         <v>2219</v>
@@ -16463,20 +16469,20 @@
         <v>2252</v>
       </c>
       <c r="B1154" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
     </row>
     <row r="1155" spans="1:2">
       <c r="A1155" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="B1155" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="B1156" t="s">
         <v>2255</v>
@@ -16487,12 +16493,12 @@
         <v>2256</v>
       </c>
       <c r="B1157" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="B1158" t="s">
         <v>2258</v>
@@ -16519,12 +16525,12 @@
         <v>2263</v>
       </c>
       <c r="B1161" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="1162" spans="1:2">
       <c r="A1162" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="B1162" t="s">
         <v>2265</v>
@@ -16535,12 +16541,12 @@
         <v>2266</v>
       </c>
       <c r="B1163" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="B1164" t="s">
         <v>2268</v>
@@ -16599,15 +16605,15 @@
         <v>2281</v>
       </c>
       <c r="B1171" t="s">
-        <v>68</v>
+        <v>2282</v>
       </c>
     </row>
     <row r="1172" spans="1:2">
       <c r="A1172" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="B1172" t="s">
-        <v>2283</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
@@ -16618,8 +16624,16 @@
         <v>2285</v>
       </c>
     </row>
+    <row r="1174" spans="1:2">
+      <c r="A1174" t="s">
+        <v>2286</v>
+      </c>
+      <c r="B1174" t="s">
+        <v>2287</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1173"/>
+  <autoFilter ref="A1:B1174"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/zh/headTags.xlsx
+++ b/lang/zh/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1174</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1175</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2290">
   <si>
     <t>en</t>
   </si>
@@ -2465,6 +2465,12 @@
   </si>
   <si>
     <t>字体(彩虹)</t>
+  </si>
+  <si>
+    <t>Font (Red Chiseled Sandstone)</t>
+  </si>
+  <si>
+    <t>字体（红凿砂岩）</t>
   </si>
   <si>
     <t>Font (Red)</t>
@@ -7227,7 +7233,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1174"/>
+  <dimension ref="A1:B1175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -10949,20 +10955,20 @@
         <v>912</v>
       </c>
       <c r="B464" t="s">
-        <v>621</v>
+        <v>913</v>
       </c>
     </row>
     <row r="465" spans="1:2">
       <c r="A465" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="B465" t="s">
-        <v>913</v>
+        <v>621</v>
       </c>
     </row>
     <row r="466" spans="1:2">
       <c r="A466" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B466" t="s">
         <v>915</v>
@@ -11189,15 +11195,15 @@
         <v>970</v>
       </c>
       <c r="B494" t="s">
-        <v>963</v>
+        <v>971</v>
       </c>
     </row>
     <row r="495" spans="1:2">
       <c r="A495" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="B495" t="s">
-        <v>972</v>
+        <v>965</v>
       </c>
     </row>
     <row r="496" spans="1:2">
@@ -11397,15 +11403,15 @@
         <v>1021</v>
       </c>
       <c r="B520" t="s">
-        <v>281</v>
+        <v>1022</v>
       </c>
     </row>
     <row r="521" spans="1:2">
       <c r="A521" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="B521" t="s">
-        <v>1023</v>
+        <v>281</v>
       </c>
     </row>
     <row r="522" spans="1:2">
@@ -11445,15 +11451,15 @@
         <v>1032</v>
       </c>
       <c r="B526" t="s">
-        <v>1031</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="527" spans="1:2">
       <c r="A527" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B527" t="s">
         <v>1033</v>
-      </c>
-      <c r="B527" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="528" spans="1:2">
@@ -11629,28 +11635,28 @@
         <v>1077</v>
       </c>
       <c r="B549" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="550" spans="1:2">
       <c r="A550" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="B550" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="551" spans="1:2">
       <c r="A551" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="B551" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="552" spans="1:2">
       <c r="A552" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="B552" t="s">
         <v>1081</v>
@@ -11661,12 +11667,12 @@
         <v>1082</v>
       </c>
       <c r="B553" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="554" spans="1:2">
       <c r="A554" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B554" t="s">
         <v>1084</v>
@@ -11965,12 +11971,12 @@
         <v>1157</v>
       </c>
       <c r="B591" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="592" spans="1:2">
       <c r="A592" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="B592" t="s">
         <v>1159</v>
@@ -12293,12 +12299,12 @@
         <v>1238</v>
       </c>
       <c r="B632" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
     </row>
     <row r="633" spans="1:2">
       <c r="A633" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B633" t="s">
         <v>1240</v>
@@ -13525,12 +13531,12 @@
         <v>1545</v>
       </c>
       <c r="B786" t="s">
-        <v>1545</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="787" spans="1:2">
       <c r="A787" t="s">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="B787" t="s">
         <v>1547</v>
@@ -13557,15 +13563,15 @@
         <v>1552</v>
       </c>
       <c r="B790" t="s">
-        <v>959</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="791" spans="1:2">
       <c r="A791" t="s">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="B791" t="s">
-        <v>1554</v>
+        <v>961</v>
       </c>
     </row>
     <row r="792" spans="1:2">
@@ -13573,20 +13579,20 @@
         <v>1555</v>
       </c>
       <c r="B792" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
     </row>
     <row r="793" spans="1:2">
       <c r="A793" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="B793" t="s">
-        <v>1556</v>
+        <v>1557</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
       <c r="B794" t="s">
         <v>1558</v>
@@ -13605,12 +13611,12 @@
         <v>1561</v>
       </c>
       <c r="B796" t="s">
-        <v>1561</v>
+        <v>1562</v>
       </c>
     </row>
     <row r="797" spans="1:2">
       <c r="A797" t="s">
-        <v>1562</v>
+        <v>1563</v>
       </c>
       <c r="B797" t="s">
         <v>1563</v>
@@ -13909,15 +13915,15 @@
         <v>1636</v>
       </c>
       <c r="B834" t="s">
-        <v>1635</v>
+        <v>1637</v>
       </c>
     </row>
     <row r="835" spans="1:2">
       <c r="A835" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B835" t="s">
         <v>1637</v>
-      </c>
-      <c r="B835" t="s">
-        <v>1638</v>
       </c>
     </row>
     <row r="836" spans="1:2">
@@ -13973,23 +13979,23 @@
         <v>1651</v>
       </c>
       <c r="B842" t="s">
-        <v>1603</v>
+        <v>1652</v>
       </c>
     </row>
     <row r="843" spans="1:2">
       <c r="A843" t="s">
-        <v>1652</v>
+        <v>1653</v>
       </c>
       <c r="B843" t="s">
-        <v>1603</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1653</v>
+        <v>1654</v>
       </c>
       <c r="B844" t="s">
-        <v>1654</v>
+        <v>1605</v>
       </c>
     </row>
     <row r="845" spans="1:2">
@@ -14117,28 +14123,28 @@
         <v>1685</v>
       </c>
       <c r="B860" t="s">
-        <v>1685</v>
+        <v>1686</v>
       </c>
     </row>
     <row r="861" spans="1:2">
       <c r="A861" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="B861" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="B862" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="B863" t="s">
         <v>1689</v>
@@ -14253,12 +14259,12 @@
         <v>1716</v>
       </c>
       <c r="B877" t="s">
-        <v>1716</v>
+        <v>1717</v>
       </c>
     </row>
     <row r="878" spans="1:2">
       <c r="A878" t="s">
-        <v>1717</v>
+        <v>1718</v>
       </c>
       <c r="B878" t="s">
         <v>1718</v>
@@ -14301,12 +14307,12 @@
         <v>1727</v>
       </c>
       <c r="B883" t="s">
-        <v>1727</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="884" spans="1:2">
       <c r="A884" t="s">
-        <v>1728</v>
+        <v>1729</v>
       </c>
       <c r="B884" t="s">
         <v>1729</v>
@@ -14541,20 +14547,20 @@
         <v>1786</v>
       </c>
       <c r="B913" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
     </row>
     <row r="914" spans="1:2">
       <c r="A914" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="B914" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="B915" t="s">
         <v>1789</v>
@@ -14677,15 +14683,15 @@
         <v>1818</v>
       </c>
       <c r="B930" t="s">
-        <v>959</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="931" spans="1:2">
       <c r="A931" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="B931" t="s">
-        <v>1820</v>
+        <v>961</v>
       </c>
     </row>
     <row r="932" spans="1:2">
@@ -14941,12 +14947,12 @@
         <v>1883</v>
       </c>
       <c r="B963" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
     </row>
     <row r="964" spans="1:2">
       <c r="A964" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="B964" t="s">
         <v>1885</v>
@@ -14957,12 +14963,12 @@
         <v>1886</v>
       </c>
       <c r="B965" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
     </row>
     <row r="966" spans="1:2">
       <c r="A966" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="B966" t="s">
         <v>1888</v>
@@ -15085,15 +15091,15 @@
         <v>1917</v>
       </c>
       <c r="B981" t="s">
-        <v>1912</v>
+        <v>1918</v>
       </c>
     </row>
     <row r="982" spans="1:2">
       <c r="A982" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="B982" t="s">
-        <v>1919</v>
+        <v>1914</v>
       </c>
     </row>
     <row r="983" spans="1:2">
@@ -15205,15 +15211,15 @@
         <v>1946</v>
       </c>
       <c r="B996" t="s">
-        <v>1945</v>
+        <v>1947</v>
       </c>
     </row>
     <row r="997" spans="1:2">
       <c r="A997" t="s">
+        <v>1948</v>
+      </c>
+      <c r="B997" t="s">
         <v>1947</v>
-      </c>
-      <c r="B997" t="s">
-        <v>1948</v>
       </c>
     </row>
     <row r="998" spans="1:2">
@@ -15253,15 +15259,15 @@
         <v>1957</v>
       </c>
       <c r="B1002" t="s">
-        <v>254</v>
+        <v>1958</v>
       </c>
     </row>
     <row r="1003" spans="1:2">
       <c r="A1003" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="B1003" t="s">
-        <v>1959</v>
+        <v>254</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
@@ -15357,12 +15363,12 @@
         <v>1982</v>
       </c>
       <c r="B1015" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
     </row>
     <row r="1016" spans="1:2">
       <c r="A1016" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="B1016" t="s">
         <v>1984</v>
@@ -15437,12 +15443,12 @@
         <v>2001</v>
       </c>
       <c r="B1025" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
     </row>
     <row r="1026" spans="1:2">
       <c r="A1026" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="B1026" t="s">
         <v>2003</v>
@@ -15877,15 +15883,15 @@
         <v>2110</v>
       </c>
       <c r="B1080" t="s">
-        <v>524</v>
+        <v>2111</v>
       </c>
     </row>
     <row r="1081" spans="1:2">
       <c r="A1081" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="B1081" t="s">
-        <v>2112</v>
+        <v>524</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
@@ -15957,15 +15963,15 @@
         <v>2129</v>
       </c>
       <c r="B1090" t="s">
-        <v>2128</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="1091" spans="1:2">
       <c r="A1091" t="s">
+        <v>2131</v>
+      </c>
+      <c r="B1091" t="s">
         <v>2130</v>
-      </c>
-      <c r="B1091" t="s">
-        <v>2131</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
@@ -16093,12 +16099,12 @@
         <v>2162</v>
       </c>
       <c r="B1107" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="1108" spans="1:2">
       <c r="A1108" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="B1108" t="s">
         <v>2164</v>
@@ -16109,12 +16115,12 @@
         <v>2165</v>
       </c>
       <c r="B1109" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="B1110" t="s">
         <v>2167</v>
@@ -16309,15 +16315,15 @@
         <v>2214</v>
       </c>
       <c r="B1134" t="s">
-        <v>2213</v>
+        <v>2215</v>
       </c>
     </row>
     <row r="1135" spans="1:2">
       <c r="A1135" t="s">
+        <v>2216</v>
+      </c>
+      <c r="B1135" t="s">
         <v>2215</v>
-      </c>
-      <c r="B1135" t="s">
-        <v>2216</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
@@ -16333,12 +16339,12 @@
         <v>2219</v>
       </c>
       <c r="B1137" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
       <c r="A1138" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="B1138" t="s">
         <v>2221</v>
@@ -16477,20 +16483,20 @@
         <v>2254</v>
       </c>
       <c r="B1155" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="1156" spans="1:2">
       <c r="A1156" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="B1156" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="B1157" t="s">
         <v>2257</v>
@@ -16501,12 +16507,12 @@
         <v>2258</v>
       </c>
       <c r="B1158" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="B1159" t="s">
         <v>2260</v>
@@ -16533,12 +16539,12 @@
         <v>2265</v>
       </c>
       <c r="B1162" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
     </row>
     <row r="1163" spans="1:2">
       <c r="A1163" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="B1163" t="s">
         <v>2267</v>
@@ -16549,12 +16555,12 @@
         <v>2268</v>
       </c>
       <c r="B1164" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="B1165" t="s">
         <v>2270</v>
@@ -16613,15 +16619,15 @@
         <v>2283</v>
       </c>
       <c r="B1172" t="s">
-        <v>68</v>
+        <v>2284</v>
       </c>
     </row>
     <row r="1173" spans="1:2">
       <c r="A1173" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="B1173" t="s">
-        <v>2285</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
@@ -16632,8 +16638,16 @@
         <v>2287</v>
       </c>
     </row>
+    <row r="1175" spans="1:2">
+      <c r="A1175" t="s">
+        <v>2288</v>
+      </c>
+      <c r="B1175" t="s">
+        <v>2289</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1174"/>
+  <autoFilter ref="A1:B1175"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/zh/headTags.xlsx
+++ b/lang/zh/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1175</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1176</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2292">
   <si>
     <t>en</t>
   </si>
@@ -6461,6 +6461,12 @@
   </si>
   <si>
     <t>暮光森林</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
+  </si>
+  <si>
+    <t>扭曲仙境</t>
   </si>
   <si>
     <t>Ultrakill</t>
@@ -7233,7 +7239,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1175"/>
+  <dimension ref="A1:B1176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -16107,12 +16113,12 @@
         <v>2164</v>
       </c>
       <c r="B1108" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="1109" spans="1:2">
       <c r="A1109" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="B1109" t="s">
         <v>2166</v>
@@ -16123,12 +16129,12 @@
         <v>2167</v>
       </c>
       <c r="B1110" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="1111" spans="1:2">
       <c r="A1111" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="B1111" t="s">
         <v>2169</v>
@@ -16323,15 +16329,15 @@
         <v>2216</v>
       </c>
       <c r="B1135" t="s">
-        <v>2215</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="1136" spans="1:2">
       <c r="A1136" t="s">
+        <v>2218</v>
+      </c>
+      <c r="B1136" t="s">
         <v>2217</v>
-      </c>
-      <c r="B1136" t="s">
-        <v>2218</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
@@ -16347,12 +16353,12 @@
         <v>2221</v>
       </c>
       <c r="B1138" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
     </row>
     <row r="1139" spans="1:2">
       <c r="A1139" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="B1139" t="s">
         <v>2223</v>
@@ -16491,20 +16497,20 @@
         <v>2256</v>
       </c>
       <c r="B1156" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
     </row>
     <row r="1157" spans="1:2">
       <c r="A1157" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="B1157" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="B1158" t="s">
         <v>2259</v>
@@ -16515,12 +16521,12 @@
         <v>2260</v>
       </c>
       <c r="B1159" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="1160" spans="1:2">
       <c r="A1160" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="B1160" t="s">
         <v>2262</v>
@@ -16547,12 +16553,12 @@
         <v>2267</v>
       </c>
       <c r="B1163" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
     </row>
     <row r="1164" spans="1:2">
       <c r="A1164" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="B1164" t="s">
         <v>2269</v>
@@ -16563,12 +16569,12 @@
         <v>2270</v>
       </c>
       <c r="B1165" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="1166" spans="1:2">
       <c r="A1166" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="B1166" t="s">
         <v>2272</v>
@@ -16627,15 +16633,15 @@
         <v>2285</v>
       </c>
       <c r="B1173" t="s">
-        <v>68</v>
+        <v>2286</v>
       </c>
     </row>
     <row r="1174" spans="1:2">
       <c r="A1174" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="B1174" t="s">
-        <v>2287</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
@@ -16646,8 +16652,16 @@
         <v>2289</v>
       </c>
     </row>
+    <row r="1176" spans="1:2">
+      <c r="A1176" t="s">
+        <v>2290</v>
+      </c>
+      <c r="B1176" t="s">
+        <v>2291</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1175"/>
+  <autoFilter ref="A1:B1176"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/zh/headTags.xlsx
+++ b/lang/zh/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1177</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2294">
   <si>
     <t>en</t>
   </si>
@@ -3446,6 +3446,12 @@
   </si>
   <si>
     <t>超像素（奴仆）</t>
+  </si>
+  <si>
+    <t>Hypixel (Mutations) Tag</t>
+  </si>
+  <si>
+    <t>超像素（变异）标签</t>
   </si>
   <si>
     <t>Hypixel (NPC)</t>
@@ -7239,7 +7245,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1176"/>
+  <dimension ref="A1:B1177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -11985,12 +11991,12 @@
         <v>1159</v>
       </c>
       <c r="B592" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="593" spans="1:2">
       <c r="A593" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="B593" t="s">
         <v>1161</v>
@@ -12313,12 +12319,12 @@
         <v>1240</v>
       </c>
       <c r="B633" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
     </row>
     <row r="634" spans="1:2">
       <c r="A634" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="B634" t="s">
         <v>1242</v>
@@ -13545,12 +13551,12 @@
         <v>1547</v>
       </c>
       <c r="B787" t="s">
-        <v>1547</v>
+        <v>1548</v>
       </c>
     </row>
     <row r="788" spans="1:2">
       <c r="A788" t="s">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="B788" t="s">
         <v>1549</v>
@@ -13577,15 +13583,15 @@
         <v>1554</v>
       </c>
       <c r="B791" t="s">
-        <v>961</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="792" spans="1:2">
       <c r="A792" t="s">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="B792" t="s">
-        <v>1556</v>
+        <v>961</v>
       </c>
     </row>
     <row r="793" spans="1:2">
@@ -13593,20 +13599,20 @@
         <v>1557</v>
       </c>
       <c r="B793" t="s">
-        <v>1557</v>
+        <v>1558</v>
       </c>
     </row>
     <row r="794" spans="1:2">
       <c r="A794" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
       <c r="B794" t="s">
-        <v>1558</v>
+        <v>1559</v>
       </c>
     </row>
     <row r="795" spans="1:2">
       <c r="A795" t="s">
-        <v>1559</v>
+        <v>1560</v>
       </c>
       <c r="B795" t="s">
         <v>1560</v>
@@ -13625,12 +13631,12 @@
         <v>1563</v>
       </c>
       <c r="B797" t="s">
-        <v>1563</v>
+        <v>1564</v>
       </c>
     </row>
     <row r="798" spans="1:2">
       <c r="A798" t="s">
-        <v>1564</v>
+        <v>1565</v>
       </c>
       <c r="B798" t="s">
         <v>1565</v>
@@ -13929,15 +13935,15 @@
         <v>1638</v>
       </c>
       <c r="B835" t="s">
-        <v>1637</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="836" spans="1:2">
       <c r="A836" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B836" t="s">
         <v>1639</v>
-      </c>
-      <c r="B836" t="s">
-        <v>1640</v>
       </c>
     </row>
     <row r="837" spans="1:2">
@@ -13993,23 +13999,23 @@
         <v>1653</v>
       </c>
       <c r="B843" t="s">
-        <v>1605</v>
+        <v>1654</v>
       </c>
     </row>
     <row r="844" spans="1:2">
       <c r="A844" t="s">
-        <v>1654</v>
+        <v>1655</v>
       </c>
       <c r="B844" t="s">
-        <v>1605</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="845" spans="1:2">
       <c r="A845" t="s">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="B845" t="s">
-        <v>1656</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="846" spans="1:2">
@@ -14137,28 +14143,28 @@
         <v>1687</v>
       </c>
       <c r="B861" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
     </row>
     <row r="862" spans="1:2">
       <c r="A862" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="B862" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
     </row>
     <row r="863" spans="1:2">
       <c r="A863" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="B863" t="s">
-        <v>1689</v>
+        <v>1690</v>
       </c>
     </row>
     <row r="864" spans="1:2">
       <c r="A864" t="s">
-        <v>1690</v>
+        <v>1691</v>
       </c>
       <c r="B864" t="s">
         <v>1691</v>
@@ -14273,12 +14279,12 @@
         <v>1718</v>
       </c>
       <c r="B878" t="s">
-        <v>1718</v>
+        <v>1719</v>
       </c>
     </row>
     <row r="879" spans="1:2">
       <c r="A879" t="s">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="B879" t="s">
         <v>1720</v>
@@ -14321,12 +14327,12 @@
         <v>1729</v>
       </c>
       <c r="B884" t="s">
-        <v>1729</v>
+        <v>1730</v>
       </c>
     </row>
     <row r="885" spans="1:2">
       <c r="A885" t="s">
-        <v>1730</v>
+        <v>1731</v>
       </c>
       <c r="B885" t="s">
         <v>1731</v>
@@ -14561,20 +14567,20 @@
         <v>1788</v>
       </c>
       <c r="B914" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
     </row>
     <row r="915" spans="1:2">
       <c r="A915" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="B915" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
     </row>
     <row r="916" spans="1:2">
       <c r="A916" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="B916" t="s">
         <v>1791</v>
@@ -14697,15 +14703,15 @@
         <v>1820</v>
       </c>
       <c r="B931" t="s">
-        <v>961</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="932" spans="1:2">
       <c r="A932" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="B932" t="s">
-        <v>1822</v>
+        <v>961</v>
       </c>
     </row>
     <row r="933" spans="1:2">
@@ -14961,12 +14967,12 @@
         <v>1885</v>
       </c>
       <c r="B964" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
     </row>
     <row r="965" spans="1:2">
       <c r="A965" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="B965" t="s">
         <v>1887</v>
@@ -14977,12 +14983,12 @@
         <v>1888</v>
       </c>
       <c r="B966" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
     </row>
     <row r="967" spans="1:2">
       <c r="A967" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="B967" t="s">
         <v>1890</v>
@@ -15105,15 +15111,15 @@
         <v>1919</v>
       </c>
       <c r="B982" t="s">
-        <v>1914</v>
+        <v>1920</v>
       </c>
     </row>
     <row r="983" spans="1:2">
       <c r="A983" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="B983" t="s">
-        <v>1921</v>
+        <v>1916</v>
       </c>
     </row>
     <row r="984" spans="1:2">
@@ -15225,15 +15231,15 @@
         <v>1948</v>
       </c>
       <c r="B997" t="s">
-        <v>1947</v>
+        <v>1949</v>
       </c>
     </row>
     <row r="998" spans="1:2">
       <c r="A998" t="s">
+        <v>1950</v>
+      </c>
+      <c r="B998" t="s">
         <v>1949</v>
-      </c>
-      <c r="B998" t="s">
-        <v>1950</v>
       </c>
     </row>
     <row r="999" spans="1:2">
@@ -15273,15 +15279,15 @@
         <v>1959</v>
       </c>
       <c r="B1003" t="s">
-        <v>254</v>
+        <v>1960</v>
       </c>
     </row>
     <row r="1004" spans="1:2">
       <c r="A1004" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="B1004" t="s">
-        <v>1961</v>
+        <v>254</v>
       </c>
     </row>
     <row r="1005" spans="1:2">
@@ -15377,12 +15383,12 @@
         <v>1984</v>
       </c>
       <c r="B1016" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
     </row>
     <row r="1017" spans="1:2">
       <c r="A1017" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="B1017" t="s">
         <v>1986</v>
@@ -15457,12 +15463,12 @@
         <v>2003</v>
       </c>
       <c r="B1026" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
     </row>
     <row r="1027" spans="1:2">
       <c r="A1027" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B1027" t="s">
         <v>2005</v>
@@ -15897,15 +15903,15 @@
         <v>2112</v>
       </c>
       <c r="B1081" t="s">
-        <v>524</v>
+        <v>2113</v>
       </c>
     </row>
     <row r="1082" spans="1:2">
       <c r="A1082" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="B1082" t="s">
-        <v>2114</v>
+        <v>524</v>
       </c>
     </row>
     <row r="1083" spans="1:2">
@@ -15977,15 +15983,15 @@
         <v>2131</v>
       </c>
       <c r="B1091" t="s">
-        <v>2130</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="1092" spans="1:2">
       <c r="A1092" t="s">
+        <v>2133</v>
+      </c>
+      <c r="B1092" t="s">
         <v>2132</v>
-      </c>
-      <c r="B1092" t="s">
-        <v>2133</v>
       </c>
     </row>
     <row r="1093" spans="1:2">
@@ -16121,12 +16127,12 @@
         <v>2166</v>
       </c>
       <c r="B1109" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="1110" spans="1:2">
       <c r="A1110" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="B1110" t="s">
         <v>2168</v>
@@ -16137,12 +16143,12 @@
         <v>2169</v>
       </c>
       <c r="B1111" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="1112" spans="1:2">
       <c r="A1112" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="B1112" t="s">
         <v>2171</v>
@@ -16337,15 +16343,15 @@
         <v>2218</v>
       </c>
       <c r="B1136" t="s">
-        <v>2217</v>
+        <v>2219</v>
       </c>
     </row>
     <row r="1137" spans="1:2">
       <c r="A1137" t="s">
+        <v>2220</v>
+      </c>
+      <c r="B1137" t="s">
         <v>2219</v>
-      </c>
-      <c r="B1137" t="s">
-        <v>2220</v>
       </c>
     </row>
     <row r="1138" spans="1:2">
@@ -16361,12 +16367,12 @@
         <v>2223</v>
       </c>
       <c r="B1139" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="1140" spans="1:2">
       <c r="A1140" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="B1140" t="s">
         <v>2225</v>
@@ -16505,20 +16511,20 @@
         <v>2258</v>
       </c>
       <c r="B1157" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
     </row>
     <row r="1158" spans="1:2">
       <c r="A1158" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="B1158" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
     </row>
     <row r="1159" spans="1:2">
       <c r="A1159" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="B1159" t="s">
         <v>2261</v>
@@ -16529,12 +16535,12 @@
         <v>2262</v>
       </c>
       <c r="B1160" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
     </row>
     <row r="1161" spans="1:2">
       <c r="A1161" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="B1161" t="s">
         <v>2264</v>
@@ -16561,12 +16567,12 @@
         <v>2269</v>
       </c>
       <c r="B1164" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="1165" spans="1:2">
       <c r="A1165" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="B1165" t="s">
         <v>2271</v>
@@ -16577,12 +16583,12 @@
         <v>2272</v>
       </c>
       <c r="B1166" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
     </row>
     <row r="1167" spans="1:2">
       <c r="A1167" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="B1167" t="s">
         <v>2274</v>
@@ -16641,15 +16647,15 @@
         <v>2287</v>
       </c>
       <c r="B1174" t="s">
-        <v>68</v>
+        <v>2288</v>
       </c>
     </row>
     <row r="1175" spans="1:2">
       <c r="A1175" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="B1175" t="s">
-        <v>2289</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1176" spans="1:2">
@@ -16660,8 +16666,16 @@
         <v>2291</v>
       </c>
     </row>
+    <row r="1177" spans="1:2">
+      <c r="A1177" t="s">
+        <v>2292</v>
+      </c>
+      <c r="B1177" t="s">
+        <v>2293</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1176"/>
+  <autoFilter ref="A1:B1177"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>

--- a/lang/zh/headTags.xlsx
+++ b/lang/zh/headTags.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Translations" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1177</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Translations'!$A$1:$B$1178</definedName>
   </definedNames>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="1" fullCalcOnLoad="0" forceFullCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2296">
   <si>
     <t>en</t>
   </si>
@@ -3448,3445 +3448,3451 @@
     <t>超像素（奴仆）</t>
   </si>
   <si>
+    <t>Hypixel (Mutations)</t>
+  </si>
+  <si>
+    <t>超像素（变异）</t>
+  </si>
+  <si>
+    <t>Hypixel (NPC)</t>
+  </si>
+  <si>
+    <t>Hypixel（NPC）</t>
+  </si>
+  <si>
+    <t>Hypixel (Pets)</t>
+  </si>
+  <si>
+    <t>超像素（宠物）</t>
+  </si>
+  <si>
+    <t>Hypixel (Reforge Stone)</t>
+  </si>
+  <si>
+    <t>Hypixel（锻造石）</t>
+  </si>
+  <si>
+    <t>Hypixel (Sacks)</t>
+  </si>
+  <si>
+    <t>像素（麻袋）</t>
+  </si>
+  <si>
+    <t>Hypixel (Skins)</t>
+  </si>
+  <si>
+    <t>像素（皮肤）</t>
+  </si>
+  <si>
+    <t>Hypixel (Talismans)</t>
+  </si>
+  <si>
+    <t>像素（护符）</t>
+  </si>
+  <si>
+    <t>Hypixel (Trophy Fish)</t>
+  </si>
+  <si>
+    <t>Hypixel（奖杯鱼）</t>
+  </si>
+  <si>
+    <t>Hōseki no Kuni (Land of the Lustrous)</t>
+  </si>
+  <si>
+    <t>色之国</t>
+  </si>
+  <si>
+    <t>Ib</t>
+  </si>
+  <si>
+    <t>Ice Age</t>
+  </si>
+  <si>
+    <t>冰河世纪</t>
+  </si>
+  <si>
+    <t>Ice Climber</t>
+  </si>
+  <si>
+    <t>攀冰</t>
+  </si>
+  <si>
+    <t>Ice Cream</t>
+  </si>
+  <si>
+    <t>冰激凌</t>
+  </si>
+  <si>
+    <t>Icons (GUI)</t>
+  </si>
+  <si>
+    <t>图标（图形用户界面）</t>
+  </si>
+  <si>
+    <t>Icons (Ironblock)</t>
+  </si>
+  <si>
+    <t>图标（铁块）</t>
+  </si>
+  <si>
+    <t>Icons (Other)</t>
+  </si>
+  <si>
+    <t>图标（其他）</t>
+  </si>
+  <si>
+    <t>Icons (white background)</t>
+  </si>
+  <si>
+    <t>图标（白色背景）</t>
+  </si>
+  <si>
+    <t>Identity V</t>
+  </si>
+  <si>
+    <t>标识 V</t>
+  </si>
+  <si>
+    <t>Illager</t>
+  </si>
+  <si>
+    <t>幻灯片</t>
+  </si>
+  <si>
+    <t>Inazuma Eleven</t>
+  </si>
+  <si>
+    <t>犬马十一人</t>
+  </si>
+  <si>
+    <t>Incredibles</t>
+  </si>
+  <si>
+    <t>超人特攻队</t>
+  </si>
+  <si>
+    <t>Indiana Jones</t>
+  </si>
+  <si>
+    <t>夺宝奇兵</t>
+  </si>
+  <si>
+    <t>Indigo Park</t>
+  </si>
+  <si>
+    <t>靛蓝公园</t>
+  </si>
+  <si>
+    <t>Injuries</t>
+  </si>
+  <si>
+    <t>受伤</t>
+  </si>
+  <si>
+    <t>Inner Layer Block</t>
+  </si>
+  <si>
+    <t>内层方块</t>
+  </si>
+  <si>
+    <t>Inscryption</t>
+  </si>
+  <si>
+    <t>加密</t>
+  </si>
+  <si>
+    <t>Insect</t>
+  </si>
+  <si>
+    <t>昆虫</t>
+  </si>
+  <si>
+    <t>Inside Out</t>
+  </si>
+  <si>
+    <t>内层</t>
+  </si>
+  <si>
+    <t>Inu Yasha</t>
+  </si>
+  <si>
+    <t>犬夜叉</t>
+  </si>
+  <si>
+    <t>Invader Zim</t>
+  </si>
+  <si>
+    <t>齐姆入侵者</t>
+  </si>
+  <si>
+    <t>Invincible</t>
+  </si>
+  <si>
+    <t>无敌</t>
+  </si>
+  <si>
+    <t>Iron Man</t>
+  </si>
+  <si>
+    <t>钢铁侠</t>
+  </si>
+  <si>
+    <t>It</t>
+  </si>
+  <si>
+    <t>它</t>
+  </si>
+  <si>
+    <t>Jak and Daxter</t>
+  </si>
+  <si>
+    <t>雅各与达克斯特</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>日本</t>
+  </si>
+  <si>
+    <t>Jar</t>
+  </si>
+  <si>
+    <t>罐子</t>
+  </si>
+  <si>
+    <t>Jewelry</t>
+  </si>
+  <si>
+    <t>珠宝</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure</t>
+  </si>
+  <si>
+    <t>乔乔的奇异冒险</t>
+  </si>
+  <si>
+    <t>JoJo's Bizarre Adventure (Stand)</t>
+  </si>
+  <si>
+    <t>JoJo的奇异冒险（支架）</t>
+  </si>
+  <si>
+    <t>Journey</t>
+  </si>
+  <si>
+    <t>旅程</t>
+  </si>
+  <si>
+    <t>Jujutsu Kaisen</t>
+  </si>
+  <si>
+    <t>柔术开山</t>
+  </si>
+  <si>
+    <t>Jump King</t>
+  </si>
+  <si>
+    <t>跳跃大王</t>
+  </si>
+  <si>
+    <t>Jurassic Park</t>
+  </si>
+  <si>
+    <t>侏罗纪公园</t>
+  </si>
+  <si>
+    <t>Justice League</t>
+  </si>
+  <si>
+    <t>正义联盟</t>
+  </si>
+  <si>
+    <t>Kaiju Paradise</t>
+  </si>
+  <si>
+    <t>怪兽乐园</t>
+  </si>
+  <si>
+    <t>Kakegurui</t>
+  </si>
+  <si>
+    <t>笕渠</t>
+  </si>
+  <si>
+    <t>Karate Kid</t>
+  </si>
+  <si>
+    <t>空手道小子</t>
+  </si>
+  <si>
+    <t>Katamari Damacy</t>
+  </si>
+  <si>
+    <t>卡塔马里-达玛西</t>
+  </si>
+  <si>
+    <t>Kid Icarus</t>
+  </si>
+  <si>
+    <t>伊卡洛斯小子</t>
+  </si>
+  <si>
+    <t>Kiki's Delivery Service</t>
+  </si>
+  <si>
+    <t>琪琪宅急便</t>
+  </si>
+  <si>
+    <t>Kill la Kill</t>
+  </si>
+  <si>
+    <t>Killzone</t>
+  </si>
+  <si>
+    <t>杀戮地带</t>
+  </si>
+  <si>
+    <t>Kim Possible</t>
+  </si>
+  <si>
+    <t>金正日</t>
+  </si>
+  <si>
+    <t>Kimetsu no Yaiba</t>
+  </si>
+  <si>
+    <t>金月八叶</t>
+  </si>
+  <si>
+    <t>Kingdom Hearts</t>
+  </si>
+  <si>
+    <t>王国之心</t>
+  </si>
+  <si>
+    <t>Kirby</t>
+  </si>
+  <si>
+    <t>科比</t>
+  </si>
+  <si>
+    <t>Kitchen</t>
+  </si>
+  <si>
+    <t>厨房</t>
+  </si>
+  <si>
+    <t>KonoSuba</t>
+  </si>
+  <si>
+    <t>科诺苏巴</t>
+  </si>
+  <si>
+    <t>Koopalings</t>
+  </si>
+  <si>
+    <t>酷比魔方</t>
+  </si>
+  <si>
+    <t>Kung Fu Panda</t>
+  </si>
+  <si>
+    <t>功夫熊猫</t>
+  </si>
+  <si>
+    <t>Kuroko no Basuke</t>
+  </si>
+  <si>
+    <t>黑子之助</t>
+  </si>
+  <si>
+    <t>Lamp Shade</t>
+  </si>
+  <si>
+    <t>灯罩</t>
+  </si>
+  <si>
+    <t>Landscape</t>
+  </si>
+  <si>
+    <t>风景</t>
+  </si>
+  <si>
+    <t>Lantern</t>
+  </si>
+  <si>
+    <t>灯笼</t>
+  </si>
+  <si>
+    <t>Laputa: Castle in the Sky</t>
+  </si>
+  <si>
+    <t>拉普达：空中城堡</t>
+  </si>
+  <si>
+    <t>LazyTown</t>
+  </si>
+  <si>
+    <t>懒人镇</t>
+  </si>
+  <si>
+    <t>League of Legends</t>
+  </si>
+  <si>
+    <t>英雄联盟</t>
+  </si>
+  <si>
+    <t>Left 4 Dead</t>
+  </si>
+  <si>
+    <t>左 4 死</t>
+  </si>
+  <si>
+    <t>Legendary Pokemon</t>
+  </si>
+  <si>
+    <t>传奇口袋妖怪</t>
+  </si>
+  <si>
+    <t>Lego</t>
+  </si>
+  <si>
+    <t>乐高</t>
+  </si>
+  <si>
+    <t>Lethal League</t>
+  </si>
+  <si>
+    <t>致命联盟</t>
+  </si>
+  <si>
+    <t>Library of Ruina</t>
+  </si>
+  <si>
+    <t>鲁伊纳图书馆</t>
+  </si>
+  <si>
+    <t>Life is Strange</t>
+  </si>
+  <si>
+    <t>奇异人生</t>
+  </si>
+  <si>
+    <t>Lilo &amp; Stitch</t>
+  </si>
+  <si>
+    <t>莉萝与史迪奇</t>
+  </si>
+  <si>
+    <t>Limbus Company</t>
+  </si>
+  <si>
+    <t>林巴斯公司</t>
+  </si>
+  <si>
+    <t>Lion King</t>
+  </si>
+  <si>
+    <t>狮子王</t>
+  </si>
+  <si>
+    <t>Little Big Planet</t>
+  </si>
+  <si>
+    <t>小小大星球</t>
+  </si>
+  <si>
+    <t>Little Mermaid</t>
+  </si>
+  <si>
+    <t>小美人鱼</t>
+  </si>
+  <si>
+    <t>Little Nightmares</t>
+  </si>
+  <si>
+    <t>小恶梦</t>
+  </si>
+  <si>
+    <t>Little Shop of Horrors</t>
+  </si>
+  <si>
+    <t>恐怖小店</t>
+  </si>
+  <si>
+    <t>Little Witch Academia</t>
+  </si>
+  <si>
+    <t>小女巫学院</t>
+  </si>
+  <si>
+    <t>Llama</t>
+  </si>
+  <si>
+    <t>拉玛</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>标志</t>
+  </si>
+  <si>
+    <t>Looney Tunes</t>
+  </si>
+  <si>
+    <t>鲁尼卡通</t>
+  </si>
+  <si>
+    <t>Lord of the Rings</t>
+  </si>
+  <si>
+    <t>魔戒</t>
+  </si>
+  <si>
+    <t>Love Live!</t>
+  </si>
+  <si>
+    <t>爱在现场</t>
+  </si>
+  <si>
+    <t>Lovestruck Creature</t>
+  </si>
+  <si>
+    <t>痴情生物</t>
+  </si>
+  <si>
+    <t>Lovestruck Person</t>
+  </si>
+  <si>
+    <t>痴情人</t>
+  </si>
+  <si>
+    <t>Lucky Luke</t>
+  </si>
+  <si>
+    <t>幸运卢克</t>
+  </si>
+  <si>
+    <t>Machine Part</t>
+  </si>
+  <si>
+    <t>机器零件</t>
+  </si>
+  <si>
+    <t>Mad Father</t>
+  </si>
+  <si>
+    <t>疯狂的父亲</t>
+  </si>
+  <si>
+    <t>Mad Max</t>
+  </si>
+  <si>
+    <t>疯狂的麦克斯</t>
+  </si>
+  <si>
+    <t>Made in Abyss</t>
+  </si>
+  <si>
+    <t>深渊制造</t>
+  </si>
+  <si>
+    <t>Madness Combat</t>
+  </si>
+  <si>
+    <t>疯狂战斗</t>
+  </si>
+  <si>
+    <t>Madoka Magica</t>
+  </si>
+  <si>
+    <t>疯狂魔卡</t>
+  </si>
+  <si>
+    <t>Makeup</t>
+  </si>
+  <si>
+    <t>化妆</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>男</t>
+  </si>
+  <si>
+    <t>Mao Mao Heroes of Pure Heart</t>
+  </si>
+  <si>
+    <t>毛毛英雄传</t>
+  </si>
+  <si>
+    <t>MapleStory</t>
+  </si>
+  <si>
+    <t>枫之故事</t>
+  </si>
+  <si>
+    <t>Marvel</t>
+  </si>
+  <si>
+    <t>奇迹</t>
+  </si>
+  <si>
+    <t>Mary and the Witch's Flower</t>
+  </si>
+  <si>
+    <t>玛丽与魔女之花</t>
+  </si>
+  <si>
+    <t>Mascot</t>
+  </si>
+  <si>
+    <t>吉祥物</t>
+  </si>
+  <si>
+    <t>Mask</t>
+  </si>
+  <si>
+    <t>面具</t>
+  </si>
+  <si>
+    <t>Mask (full)</t>
+  </si>
+  <si>
+    <t>面具（全套）</t>
+  </si>
+  <si>
+    <t>Mask (functional)</t>
+  </si>
+  <si>
+    <t>面具（功能）</t>
+  </si>
+  <si>
+    <t>Mask (health)</t>
+  </si>
+  <si>
+    <t>面具（健康）</t>
+  </si>
+  <si>
+    <t>Mask (Minecraft mob)</t>
+  </si>
+  <si>
+    <t>面具（Minecraft 暴民）</t>
+  </si>
+  <si>
+    <t>Mass Effect</t>
+  </si>
+  <si>
+    <t>质量效应</t>
+  </si>
+  <si>
+    <t>Masters of the Universe</t>
+  </si>
+  <si>
+    <t>宇宙大师</t>
+  </si>
+  <si>
+    <t>Mathematical Symbol</t>
+  </si>
+  <si>
+    <t>数学符号</t>
+  </si>
+  <si>
+    <t>Mc Donalds</t>
+  </si>
+  <si>
+    <t>麦当劳</t>
+  </si>
+  <si>
+    <t>Meal</t>
+  </si>
+  <si>
+    <t>餐点</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>肉类</t>
+  </si>
+  <si>
+    <t>Medieval</t>
+  </si>
+  <si>
+    <t>中世纪</t>
+  </si>
+  <si>
+    <t>Medieval Tavern</t>
+  </si>
+  <si>
+    <t>中世纪酒馆</t>
+  </si>
+  <si>
+    <t>Medieval Warfare Helmet</t>
+  </si>
+  <si>
+    <t>中世纪战争头盔</t>
+  </si>
+  <si>
+    <t>MediEvil</t>
+  </si>
+  <si>
+    <t>中世纪邪恶</t>
+  </si>
+  <si>
+    <t>Mega Evolution</t>
+  </si>
+  <si>
+    <t>巨型进化</t>
+  </si>
+  <si>
+    <t>Megaman</t>
+  </si>
+  <si>
+    <t>大富翁</t>
+  </si>
+  <si>
+    <t>Megami Tensei</t>
+  </si>
+  <si>
+    <t>洛克王国</t>
+  </si>
+  <si>
+    <t>Mekakucity Actors</t>
+  </si>
+  <si>
+    <t>Mekakucity 演员</t>
+  </si>
+  <si>
+    <t>Meme</t>
+  </si>
+  <si>
+    <t>梅米</t>
+  </si>
+  <si>
+    <t>Meme (Doge)</t>
+  </si>
+  <si>
+    <t>米姆（斗牛犬）</t>
+  </si>
+  <si>
+    <t>Meme (Pepe)</t>
+  </si>
+  <si>
+    <t>米米（佩佩）</t>
+  </si>
+  <si>
+    <t>Metal</t>
+  </si>
+  <si>
+    <t>金属</t>
+  </si>
+  <si>
+    <t>Metal Gear</t>
+  </si>
+  <si>
+    <t>金属齿轮</t>
+  </si>
+  <si>
+    <t>Metro</t>
+  </si>
+  <si>
+    <t>地铁</t>
+  </si>
+  <si>
+    <t>Metroid</t>
+  </si>
+  <si>
+    <t>大都会</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>墨西哥</t>
+  </si>
+  <si>
+    <t>Mickey Mouse</t>
+  </si>
+  <si>
+    <t>米老鼠</t>
+  </si>
+  <si>
+    <t>Military Equipment</t>
+  </si>
+  <si>
+    <t>军事装备</t>
+  </si>
+  <si>
+    <t>Minecraft April Fools</t>
+  </si>
+  <si>
+    <t>威廉与愚人节</t>
+  </si>
+  <si>
+    <t>Minecraft Bedrock Edition</t>
+  </si>
+  <si>
+    <t>威廉与基岩版</t>
+  </si>
+  <si>
+    <t>Minecraft Dungeons</t>
+  </si>
+  <si>
+    <t>威廉与地下城</t>
+  </si>
+  <si>
+    <t>Minecraft Earth</t>
+  </si>
+  <si>
+    <t>威廉与地球</t>
+  </si>
+  <si>
+    <t>Minecraft Education Edition</t>
+  </si>
+  <si>
+    <t>威廉与教育版</t>
+  </si>
+  <si>
+    <t>Minecraft Legends</t>
+  </si>
+  <si>
+    <t>威廉与传奇</t>
+  </si>
+  <si>
+    <t>Minecraft Live</t>
+  </si>
+  <si>
+    <t>威廉与生活</t>
+  </si>
+  <si>
+    <t>Minecraft Movie</t>
+  </si>
+  <si>
+    <t>威廉与电影</t>
+  </si>
+  <si>
+    <t>Minecraft Story Mode</t>
+  </si>
+  <si>
+    <t>我的世界故事模式</t>
+  </si>
+  <si>
+    <t>Miner</t>
+  </si>
+  <si>
+    <t>矿工</t>
+  </si>
+  <si>
+    <t>Minesweeper</t>
+  </si>
+  <si>
+    <t>扫雷</t>
+  </si>
+  <si>
+    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
+  </si>
+  <si>
+    <t>奇迹 瓢虫和黑猫的故事</t>
+  </si>
+  <si>
+    <t>Mirai Nikki (Future Diary)</t>
+  </si>
+  <si>
+    <t>未来日记</t>
+  </si>
+  <si>
+    <t>Mirror's Edge</t>
+  </si>
+  <si>
+    <t>镜之边缘</t>
+  </si>
+  <si>
+    <t>Miss Kobayashi's Dragon Maid</t>
+  </si>
+  <si>
+    <t>小林小姐的龙女仆</t>
+  </si>
+  <si>
+    <t>Mizuno's Resource Pack</t>
+  </si>
+  <si>
+    <t>水野的资源包</t>
+  </si>
+  <si>
+    <t>Moana</t>
+  </si>
+  <si>
+    <t>莫阿娜</t>
+  </si>
+  <si>
+    <t>Modern Warfare Helmet</t>
+  </si>
+  <si>
+    <t>现代战争头盔</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>金钱</t>
+  </si>
+  <si>
+    <t>Money Heist</t>
+  </si>
+  <si>
+    <t>抢钱</t>
+  </si>
+  <si>
+    <t>Monitor</t>
+  </si>
+  <si>
+    <t>监视器</t>
+  </si>
+  <si>
+    <t>Monkey Island</t>
+  </si>
+  <si>
+    <t>猴岛</t>
+  </si>
+  <si>
+    <t>Monocle</t>
+  </si>
+  <si>
+    <t>单片眼镜</t>
+  </si>
+  <si>
+    <t>Monster High</t>
+  </si>
+  <si>
+    <t>怪物高塔</t>
+  </si>
+  <si>
+    <t>Monster Hunter</t>
+  </si>
+  <si>
+    <t>怪物猎人</t>
+  </si>
+  <si>
+    <t>Monsters Inc</t>
+  </si>
+  <si>
+    <t>怪物公司</t>
+  </si>
+  <si>
+    <t>Moomin</t>
+  </si>
+  <si>
+    <t>姆明</t>
+  </si>
+  <si>
+    <t>Mortal Kombat</t>
+  </si>
+  <si>
+    <t>真人快打</t>
+  </si>
+  <si>
+    <t>Mounts of Mayhem</t>
+  </si>
+  <si>
+    <t>混乱坐骑</t>
+  </si>
+  <si>
+    <t>Mouthwashing</t>
+  </si>
+  <si>
+    <t>漱口水</t>
+  </si>
+  <si>
+    <t>Mr. Bean</t>
+  </si>
+  <si>
+    <t>憨豆先生</t>
+  </si>
+  <si>
+    <t>Mulan</t>
+  </si>
+  <si>
+    <t>花木兰</t>
+  </si>
+  <si>
+    <t>Mundo Gaturro</t>
+  </si>
+  <si>
+    <t>加图罗世界</t>
+  </si>
+  <si>
+    <t>Muppets</t>
+  </si>
+  <si>
+    <t>布偶团</t>
+  </si>
+  <si>
+    <t>Murder Drones</t>
+  </si>
+  <si>
+    <t>杀人无人机</t>
+  </si>
+  <si>
+    <t>Mushroom</t>
+  </si>
+  <si>
+    <t>蘑菇</t>
+  </si>
+  <si>
+    <t>Mushroom (Biome)</t>
+  </si>
+  <si>
+    <t>蘑菇（生物群落）</t>
+  </si>
+  <si>
+    <t>Mushroom (Headwear)</t>
+  </si>
+  <si>
+    <t>蘑菇（头饰）</t>
+  </si>
+  <si>
+    <t>Music</t>
+  </si>
+  <si>
+    <t>音乐</t>
+  </si>
+  <si>
+    <t>Mustache</t>
+  </si>
+  <si>
+    <t>小胡子</t>
+  </si>
+  <si>
+    <t>My Deer Friend Nokotan</t>
+  </si>
+  <si>
+    <t>我的鹿朋友诺克丹</t>
+  </si>
+  <si>
+    <t>My Hero Academia</t>
+  </si>
+  <si>
+    <t>我的英雄学院</t>
+  </si>
+  <si>
+    <t>My Little Pony</t>
+  </si>
+  <si>
+    <t>我的小马</t>
+  </si>
+  <si>
+    <t>My Neighbor Totoro</t>
+  </si>
+  <si>
+    <t>我的邻居龙猫</t>
+  </si>
+  <si>
+    <t>My Singing Monsters</t>
+  </si>
+  <si>
+    <t>我的会唱歌的怪兽</t>
+  </si>
+  <si>
+    <t>Naruto</t>
+  </si>
+  <si>
+    <t>火影忍者</t>
+  </si>
+  <si>
+    <t>Nausicaä of the Valley of the Wind</t>
+  </si>
+  <si>
+    <t>风之谷的娜乌西卡</t>
+  </si>
+  <si>
+    <t>Nekopara</t>
+  </si>
+  <si>
+    <t>奈克帕拉</t>
+  </si>
+  <si>
+    <t>Neon Genesis Evangelion</t>
+  </si>
+  <si>
+    <t>霓虹创世纪福音战士</t>
+  </si>
+  <si>
+    <t>Nether (inspired)</t>
+  </si>
+  <si>
+    <t>何方神圣（灵感）</t>
+  </si>
+  <si>
+    <t>Nether (vanilla)</t>
+  </si>
+  <si>
+    <t>尼瑟斯（虚构）</t>
+  </si>
+  <si>
+    <t>Neutral Creature</t>
+  </si>
+  <si>
+    <t>中立生物</t>
+  </si>
+  <si>
+    <t>Neutral Person</t>
+  </si>
+  <si>
+    <t>中立人</t>
+  </si>
+  <si>
+    <t>New Year's Eve</t>
+  </si>
+  <si>
+    <t>新年前夜</t>
+  </si>
+  <si>
+    <t>NieR: Automata</t>
+  </si>
+  <si>
+    <t>尼尔：自动人形</t>
+  </si>
+  <si>
+    <t>Night in the Woods</t>
+  </si>
+  <si>
+    <t>森林之夜</t>
+  </si>
+  <si>
+    <t>Nightmare Before Christmas</t>
+  </si>
+  <si>
+    <t>圣诞夜</t>
+  </si>
+  <si>
+    <t>Ninja Turtles</t>
+  </si>
+  <si>
+    <t>忍者神龟</t>
+  </si>
+  <si>
+    <t>No Game No Life</t>
+  </si>
+  <si>
+    <t>无游戏不人生</t>
+  </si>
+  <si>
+    <t>No Man's Sky</t>
+  </si>
+  <si>
+    <t>无人天空</t>
+  </si>
+  <si>
+    <t>Noel's House Party</t>
+  </si>
+  <si>
+    <t>诺埃尔的家庭聚会</t>
+  </si>
+  <si>
+    <t>Norse Mythology</t>
+  </si>
+  <si>
+    <t>北欧神话</t>
+  </si>
+  <si>
+    <t>NPC (Education Edition)</t>
+  </si>
+  <si>
+    <t>人大（教育版）</t>
+  </si>
+  <si>
+    <t>Nuclear Fallout</t>
+  </si>
+  <si>
+    <t>核爆</t>
+  </si>
+  <si>
+    <t>Nuclear Throne</t>
+  </si>
+  <si>
+    <t>核王座</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>数字</t>
+  </si>
+  <si>
+    <t>Nut</t>
+  </si>
+  <si>
+    <t>坚果</t>
+  </si>
+  <si>
+    <t>Ocean</t>
+  </si>
+  <si>
+    <t>海洋</t>
+  </si>
+  <si>
+    <t>Octodad</t>
+  </si>
+  <si>
+    <t>八爪鱼</t>
+  </si>
+  <si>
+    <t>Oddworld</t>
+  </si>
+  <si>
+    <t>奇异世界</t>
+  </si>
+  <si>
+    <t>OFF</t>
+  </si>
+  <si>
+    <t>关闭</t>
+  </si>
+  <si>
+    <t>Officer Cap</t>
+  </si>
+  <si>
+    <t>军官帽</t>
+  </si>
+  <si>
+    <t>Oggy and the Cockroaches</t>
+  </si>
+  <si>
+    <t>奥格和蟑螂</t>
+  </si>
+  <si>
+    <t>Okegom</t>
+  </si>
+  <si>
+    <t>Old</t>
+  </si>
+  <si>
+    <t>老</t>
+  </si>
+  <si>
+    <t>Oliver &amp; Co</t>
+  </si>
+  <si>
+    <t>奥利弗公司</t>
+  </si>
+  <si>
+    <t>Omori</t>
+  </si>
+  <si>
+    <t>大森</t>
+  </si>
+  <si>
+    <t>One Piece</t>
+  </si>
+  <si>
+    <t>One Punch Man</t>
+  </si>
+  <si>
+    <t>一拳超人</t>
+  </si>
+  <si>
+    <t>OneShot</t>
+  </si>
+  <si>
+    <t>Ongezellig</t>
+  </si>
+  <si>
+    <t>Onii-chan wa Oshimai</t>
+  </si>
+  <si>
+    <t>鬼子大岛</t>
+  </si>
+  <si>
+    <t>Open Source Objects</t>
+  </si>
+  <si>
+    <t>开源对象</t>
+  </si>
+  <si>
+    <t>Orb</t>
+  </si>
+  <si>
+    <t>Orc</t>
+  </si>
+  <si>
+    <t>兽人</t>
+  </si>
+  <si>
+    <t>Ore</t>
+  </si>
+  <si>
+    <t>矿石</t>
+  </si>
+  <si>
+    <t>Organs and Bodyparts</t>
+  </si>
+  <si>
+    <t>器官和肢体</t>
+  </si>
+  <si>
+    <t>Other Headgear</t>
+  </si>
+  <si>
+    <t>其他头饰</t>
+  </si>
+  <si>
+    <t>Other Illumination</t>
+  </si>
+  <si>
+    <t>其他照明</t>
+  </si>
+  <si>
+    <t>Other Mystic Creature</t>
+  </si>
+  <si>
+    <t>其他神秘生物</t>
+  </si>
+  <si>
+    <t>Outer Layer Block</t>
+  </si>
+  <si>
+    <t>外层方块</t>
+  </si>
+  <si>
+    <t>Overlord</t>
+  </si>
+  <si>
+    <t>霸主</t>
+  </si>
+  <si>
+    <t>Overwatch</t>
+  </si>
+  <si>
+    <t>守望先锋</t>
+  </si>
+  <si>
+    <t>Pac-Man</t>
+  </si>
+  <si>
+    <t>吃豆人</t>
+  </si>
+  <si>
+    <t>Pacific Rim</t>
+  </si>
+  <si>
+    <t>环太平洋</t>
+  </si>
+  <si>
+    <t>Pacifier</t>
+  </si>
+  <si>
+    <t>安抚奶嘴</t>
+  </si>
+  <si>
+    <t>Painted Face</t>
+  </si>
+  <si>
+    <t>彩绘脸谱</t>
+  </si>
+  <si>
+    <t>Pale Garden (inspired)</t>
+  </si>
+  <si>
+    <t>苍白花园（灵感来源）</t>
+  </si>
+  <si>
+    <t>Panda Bear</t>
+  </si>
+  <si>
+    <t>熊猫熊</t>
+  </si>
+  <si>
+    <t>Pans Labyrinth</t>
+  </si>
+  <si>
+    <t>平底锅迷宫</t>
+  </si>
+  <si>
+    <t>Papers Please</t>
+  </si>
+  <si>
+    <t>请出示证件</t>
+  </si>
+  <si>
+    <t>PaRappa the Rapper</t>
+  </si>
+  <si>
+    <t>说唱歌手 PaRappa</t>
+  </si>
+  <si>
+    <t>Party</t>
+  </si>
+  <si>
+    <t>派对</t>
+  </si>
+  <si>
+    <t>Pastries and Sweets</t>
+  </si>
+  <si>
+    <t>糕点和糖果</t>
+  </si>
+  <si>
+    <t>Paw Patrol</t>
+  </si>
+  <si>
+    <t>宠物小精灵</t>
+  </si>
+  <si>
+    <t>Payday</t>
+  </si>
+  <si>
+    <t>发薪日</t>
+  </si>
+  <si>
+    <t>Peanuts (Snoopy)</t>
+  </si>
+  <si>
+    <t>花生（史努比）</t>
+  </si>
+  <si>
+    <t>Penguin</t>
+  </si>
+  <si>
+    <t>企鹅</t>
+  </si>
+  <si>
+    <t>Peppa Pig</t>
+  </si>
+  <si>
+    <t>小猪佩帕</t>
+  </si>
+  <si>
+    <t>Periodic Table of Elements</t>
+  </si>
+  <si>
+    <t>元素周期表</t>
+  </si>
+  <si>
+    <t>Persona</t>
+  </si>
+  <si>
+    <t>角色</t>
+  </si>
+  <si>
+    <t>Pet Equipment</t>
+  </si>
+  <si>
+    <t>宠物装备</t>
+  </si>
+  <si>
+    <t>Peter Pan</t>
+  </si>
+  <si>
+    <t>小飞侠</t>
+  </si>
+  <si>
+    <t>Phantom</t>
+  </si>
+  <si>
+    <t>幻影</t>
+  </si>
+  <si>
+    <t>Phineas &amp; Ferb</t>
+  </si>
+  <si>
+    <t>菲尼亚斯和费伯</t>
+  </si>
+  <si>
+    <t>Pig</t>
+  </si>
+  <si>
+    <t>小猪</t>
+  </si>
+  <si>
+    <t>Piglin</t>
+  </si>
+  <si>
+    <t>猪林</t>
+  </si>
+  <si>
+    <t>Pigman</t>
+  </si>
+  <si>
+    <t>猪人</t>
+  </si>
+  <si>
+    <t>Pikmin</t>
+  </si>
+  <si>
+    <t>皮克明</t>
+  </si>
+  <si>
+    <t>Pingu</t>
+  </si>
+  <si>
+    <t>企鹅家族</t>
+  </si>
+  <si>
+    <t>Pink Panther</t>
+  </si>
+  <si>
+    <t>粉红豹</t>
+  </si>
+  <si>
+    <t>Pinky and the Brain</t>
+  </si>
+  <si>
+    <t>Pinocchio</t>
+  </si>
+  <si>
+    <t>木偶奇遇记</t>
+  </si>
+  <si>
+    <t>Pirates of the Caribbean</t>
+  </si>
+  <si>
+    <t>加勒比海盗</t>
+  </si>
+  <si>
+    <t>Pizza Tower</t>
+  </si>
+  <si>
+    <t>比萨塔</t>
+  </si>
+  <si>
+    <t>Planet</t>
+  </si>
+  <si>
+    <t>星球</t>
+  </si>
+  <si>
+    <t>Plants vs. Zombies</t>
+  </si>
+  <si>
+    <t>植物大战僵尸</t>
+  </si>
+  <si>
+    <t>Playerunknown's Battlegrounds</t>
+  </si>
+  <si>
+    <t>玩家世界</t>
+  </si>
+  <si>
+    <t>Pocahontas</t>
+  </si>
+  <si>
+    <t>风中奇缘</t>
+  </si>
+  <si>
+    <t>Pokeball</t>
+  </si>
+  <si>
+    <t>Pokemon</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 1</t>
+  </si>
+  <si>
+    <t>口袋妖怪 1 代</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 2</t>
+  </si>
+  <si>
+    <t>口袋妖怪 2 代</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 3</t>
+  </si>
+  <si>
+    <t>口袋妖怪第 3 代</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 4</t>
+  </si>
+  <si>
+    <t>口袋妖怪第 4 代</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 5</t>
+  </si>
+  <si>
+    <t>口袋妖怪第五代</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 6</t>
+  </si>
+  <si>
+    <t>口袋妖怪第六代</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 7</t>
+  </si>
+  <si>
+    <t>口袋妖怪第 7 代</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 8</t>
+  </si>
+  <si>
+    <t>口袋妖怪第 8 代</t>
+  </si>
+  <si>
+    <t>Pokemon Generation 9</t>
+  </si>
+  <si>
+    <t>口袋妖怪第 9 代</t>
+  </si>
+  <si>
+    <t>Pokemon Items</t>
+  </si>
+  <si>
+    <t>宠物小精灵道具</t>
+  </si>
+  <si>
+    <t>Pokemon Trainer</t>
+  </si>
+  <si>
+    <t>宠物小精灵训练师</t>
+  </si>
+  <si>
+    <t>Polar Bear</t>
+  </si>
+  <si>
+    <t>北极熊</t>
+  </si>
+  <si>
+    <t>Police</t>
+  </si>
+  <si>
+    <t>警察</t>
+  </si>
+  <si>
+    <t>Pom Poko</t>
+  </si>
+  <si>
+    <t>波姆波克</t>
+  </si>
+  <si>
+    <t>Ponyo</t>
+  </si>
+  <si>
+    <t>波妞</t>
+  </si>
+  <si>
+    <t>Pop Team Epic</t>
+  </si>
+  <si>
+    <t>流行史诗队</t>
+  </si>
+  <si>
+    <t>POPGOES</t>
+  </si>
+  <si>
+    <t>Poppy Playtime</t>
+  </si>
+  <si>
+    <t>Porco Rosso</t>
+  </si>
+  <si>
+    <t>Portal</t>
+  </si>
+  <si>
+    <t>传送门</t>
+  </si>
+  <si>
+    <t>Postman Pat</t>
+  </si>
+  <si>
+    <t>邮递员 Pat</t>
+  </si>
+  <si>
+    <t>Power Rangers</t>
+  </si>
+  <si>
+    <t>电力别动队</t>
+  </si>
+  <si>
+    <t>Powerpuff Girls</t>
+  </si>
+  <si>
+    <t>飞天小女警</t>
+  </si>
+  <si>
+    <t>Predator</t>
+  </si>
+  <si>
+    <t>掠食者</t>
+  </si>
+  <si>
+    <t>Present</t>
+  </si>
+  <si>
+    <t>礼物</t>
+  </si>
+  <si>
+    <t>Pride</t>
+  </si>
+  <si>
+    <t>骄傲</t>
+  </si>
+  <si>
+    <t>Primate</t>
+  </si>
+  <si>
+    <t>灵长类动物</t>
+  </si>
+  <si>
+    <t>Princess Mononoke</t>
+  </si>
+  <si>
+    <t>梦幻公主</t>
+  </si>
+  <si>
+    <t>Prof Layton</t>
+  </si>
+  <si>
+    <t>雷顿教授</t>
+  </si>
+  <si>
+    <t>Pumpkin</t>
+  </si>
+  <si>
+    <t>南瓜</t>
+  </si>
+  <si>
+    <t>Pumpkin (Lit)</t>
+  </si>
+  <si>
+    <t>南瓜（文学）</t>
+  </si>
+  <si>
+    <t>Punctuation Mark</t>
+  </si>
+  <si>
+    <t>标点符号</t>
+  </si>
+  <si>
+    <t>Quake</t>
+  </si>
+  <si>
+    <t>地震</t>
+  </si>
+  <si>
+    <t>R.E.P.O.</t>
+  </si>
+  <si>
+    <t>Rabbit</t>
+  </si>
+  <si>
+    <t>兔子</t>
+  </si>
+  <si>
+    <t>Railway</t>
+  </si>
+  <si>
+    <t>铁路</t>
+  </si>
+  <si>
+    <t>Rain World</t>
+  </si>
+  <si>
+    <t>雨世界</t>
+  </si>
+  <si>
+    <t>Ratatouille</t>
+  </si>
+  <si>
+    <t>料理鼠王</t>
+  </si>
+  <si>
+    <t>Ratchet &amp; Clank</t>
+  </si>
+  <si>
+    <t>棘轮与叮当</t>
+  </si>
+  <si>
+    <t>Re:Creators</t>
+  </si>
+  <si>
+    <t>Re:Zero</t>
+  </si>
+  <si>
+    <t>Re:零</t>
+  </si>
+  <si>
+    <t>Realm of the Mad God</t>
+  </si>
+  <si>
+    <t>狂神领域</t>
+  </si>
+  <si>
+    <t>Red Dead Redemption</t>
+  </si>
+  <si>
+    <t>红色死亡救赎</t>
+  </si>
+  <si>
+    <t>Red Riding Hood</t>
+  </si>
+  <si>
+    <t>小红帽</t>
+  </si>
+  <si>
+    <t>Redstone</t>
+  </si>
+  <si>
+    <t>红石</t>
+  </si>
+  <si>
+    <t>Regional Form Pokemon</t>
+  </si>
+  <si>
+    <t>地区形态小精灵</t>
+  </si>
+  <si>
+    <t>Regretavator</t>
+  </si>
+  <si>
+    <t>雷鬼</t>
+  </si>
+  <si>
+    <t>Regular Show</t>
+  </si>
+  <si>
+    <t>常规节目</t>
+  </si>
+  <si>
+    <t>Religion</t>
+  </si>
+  <si>
+    <t>宗教</t>
+  </si>
+  <si>
+    <t>Reptile</t>
+  </si>
+  <si>
+    <t>爬行动物</t>
+  </si>
+  <si>
+    <t>Rescue Rangers</t>
+  </si>
+  <si>
+    <t>救援别动队</t>
+  </si>
+  <si>
+    <t>Resident Evil</t>
+  </si>
+  <si>
+    <t>生化危机</t>
+  </si>
+  <si>
+    <t>Rhythm Heaven</t>
+  </si>
+  <si>
+    <t>节奏天堂</t>
+  </si>
+  <si>
+    <t>Ribbon</t>
+  </si>
+  <si>
+    <t>丝带</t>
+  </si>
+  <si>
+    <t>Rick and Morty</t>
+  </si>
+  <si>
+    <t>瑞克和莫蒂</t>
+  </si>
+  <si>
+    <t>Risk of Rain</t>
+  </si>
+  <si>
+    <t>雨的风险</t>
+  </si>
+  <si>
+    <t>Rival of Aether</t>
+  </si>
+  <si>
+    <t>乙太之敌</t>
+  </si>
+  <si>
+    <t>River</t>
+  </si>
+  <si>
+    <t>河</t>
+  </si>
+  <si>
+    <t>Riverdale</t>
+  </si>
+  <si>
+    <t>河谷</t>
+  </si>
+  <si>
+    <t>Robin Hood</t>
+  </si>
+  <si>
+    <t>罗宾汉</t>
+  </si>
+  <si>
+    <t>Roblox</t>
+  </si>
+  <si>
+    <t>机器人世界</t>
+  </si>
+  <si>
+    <t>RoboCop</t>
+  </si>
+  <si>
+    <t>机械战警</t>
+  </si>
+  <si>
+    <t>Robot</t>
+  </si>
+  <si>
+    <t>机器人</t>
+  </si>
+  <si>
+    <t>Rocky</t>
+  </si>
+  <si>
+    <t>洛奇</t>
+  </si>
+  <si>
+    <t>Rocky Horror Picture Show</t>
+  </si>
+  <si>
+    <t>洛基恐怖画展</t>
+  </si>
+  <si>
+    <t>Rodent</t>
+  </si>
+  <si>
+    <t>啮齿动物</t>
+  </si>
+  <si>
+    <t>Rotated Entity</t>
+  </si>
+  <si>
+    <t>旋转实体</t>
+  </si>
+  <si>
+    <t>Royal Headgear</t>
+  </si>
+  <si>
+    <t>皇家头饰</t>
+  </si>
+  <si>
+    <t>Rune</t>
+  </si>
+  <si>
+    <t>符文</t>
+  </si>
+  <si>
+    <t>Runescape</t>
+  </si>
+  <si>
+    <t>RWBY</t>
+  </si>
+  <si>
+    <t>Sackboy: A Big Adventure</t>
+  </si>
+  <si>
+    <t>萨克男孩 大冒险</t>
+  </si>
+  <si>
+    <t>Sad Creature</t>
+  </si>
+  <si>
+    <t>悲伤生物</t>
+  </si>
+  <si>
+    <t>Sad Person</t>
+  </si>
+  <si>
+    <t>悲伤的人</t>
+  </si>
+  <si>
+    <t>Safari (Other)</t>
+  </si>
+  <si>
+    <t>野生动物园（其他）</t>
+  </si>
+  <si>
+    <t>Saga of Tanya the Evil</t>
+  </si>
+  <si>
+    <t>塔尼亚传奇</t>
+  </si>
+  <si>
+    <t>Sailor Moon</t>
+  </si>
+  <si>
+    <t>美少女战士</t>
+  </si>
+  <si>
+    <t>Sakurasou no Pet na Kanojo</t>
+  </si>
+  <si>
+    <t>樱花宠物的卡诺乔</t>
+  </si>
+  <si>
+    <t>Samurai Helmet</t>
+  </si>
+  <si>
+    <t>武士头盔</t>
+  </si>
+  <si>
+    <t>Satisfactory</t>
+  </si>
+  <si>
+    <t>满意</t>
+  </si>
+  <si>
+    <t>Saw</t>
+  </si>
+  <si>
+    <t>锯</t>
+  </si>
+  <si>
+    <t>Scarf</t>
+  </si>
+  <si>
+    <t>围巾</t>
+  </si>
+  <si>
+    <t>Scooby-Doo</t>
+  </si>
+  <si>
+    <t>史酷比</t>
+  </si>
+  <si>
+    <t>SCP Containment Breach</t>
+  </si>
+  <si>
+    <t>SCP 隔离破坏</t>
+  </si>
+  <si>
+    <t>Scream</t>
+  </si>
+  <si>
+    <t>尖叫</t>
+  </si>
+  <si>
+    <t>Scribblenauts</t>
+  </si>
+  <si>
+    <t>涂鸦游戏</t>
+  </si>
+  <si>
+    <t>Sea of Thieves</t>
+  </si>
+  <si>
+    <t>Seafarer</t>
+  </si>
+  <si>
+    <t>海员</t>
+  </si>
+  <si>
+    <t>Seraph of the End</t>
+  </si>
+  <si>
+    <t>末日塞拉夫</t>
+  </si>
+  <si>
+    <t>Serial Experiments Lain</t>
+  </si>
+  <si>
+    <t>莱恩系列实验</t>
+  </si>
+  <si>
+    <t>Sesame Street</t>
+  </si>
+  <si>
+    <t>芝麻街</t>
+  </si>
+  <si>
+    <t>Seven Deadly Sins</t>
+  </si>
+  <si>
+    <t>七宗罪</t>
+  </si>
+  <si>
+    <t>Shadow of the Colossus</t>
+  </si>
+  <si>
+    <t>巨人之影</t>
+  </si>
+  <si>
+    <t>Shadows of Mordor</t>
+  </si>
+  <si>
+    <t>魔多之影</t>
+  </si>
+  <si>
+    <t>Sheep</t>
+  </si>
+  <si>
+    <t>绵羊</t>
+  </si>
+  <si>
+    <t>Sherlock Holmes</t>
+  </si>
+  <si>
+    <t>福尔摩斯探案</t>
+  </si>
+  <si>
+    <t>Shigatsu wa Kimi no Uso</t>
+  </si>
+  <si>
+    <t>重松与木之臼</t>
+  </si>
+  <si>
+    <t>Shimoneta</t>
+  </si>
+  <si>
+    <t>下田</t>
+  </si>
+  <si>
+    <t>Shiny Pokemon</t>
+  </si>
+  <si>
+    <t>闪亮的小精灵</t>
+  </si>
+  <si>
+    <t>Shipping</t>
+  </si>
+  <si>
+    <t>船运</t>
+  </si>
+  <si>
+    <t>Shovel Knight</t>
+  </si>
+  <si>
+    <t>铲子骑士</t>
+  </si>
+  <si>
+    <t>Shrek</t>
+  </si>
+  <si>
+    <t>史莱克</t>
+  </si>
+  <si>
+    <t>Shulker</t>
+  </si>
+  <si>
+    <t>舒尔克</t>
+  </si>
+  <si>
+    <t>Silent Hill</t>
+  </si>
+  <si>
+    <t>寂静岭</t>
+  </si>
+  <si>
+    <t>SilvaGunner</t>
+  </si>
+  <si>
+    <t>席尔瓦枪手</t>
+  </si>
+  <si>
+    <t>Simpsons</t>
+  </si>
+  <si>
+    <t>辛普森一家</t>
+  </si>
+  <si>
+    <t>Skeleton</t>
+  </si>
+  <si>
+    <t>骷髅</t>
+  </si>
+  <si>
+    <t>Skeleton (Vanilla)</t>
+  </si>
+  <si>
+    <t>骷髅（香草）</t>
+  </si>
+  <si>
+    <t>Skeptical Creature</t>
+  </si>
+  <si>
+    <t>骷髅生物</t>
+  </si>
+  <si>
+    <t>Skeptical Person</t>
+  </si>
+  <si>
+    <t>骷髅人</t>
+  </si>
+  <si>
+    <t>Skullgirls</t>
+  </si>
+  <si>
+    <t>骷髅女孩</t>
+  </si>
+  <si>
+    <t>Skyrim</t>
+  </si>
+  <si>
+    <t>天际</t>
+  </si>
+  <si>
+    <t>Sleeping Beauty</t>
+  </si>
+  <si>
+    <t>睡美人</t>
+  </si>
+  <si>
+    <t>Sleeping Creature</t>
+  </si>
+  <si>
+    <t>沉睡的生物</t>
+  </si>
+  <si>
+    <t>Sleeping Person</t>
+  </si>
+  <si>
+    <t>沉睡的人</t>
+  </si>
+  <si>
+    <t>Sliced</t>
+  </si>
+  <si>
+    <t>切片</t>
+  </si>
+  <si>
+    <t>Slime</t>
+  </si>
+  <si>
+    <t>史莱姆</t>
+  </si>
+  <si>
+    <t>Slime (Vanilla)</t>
+  </si>
+  <si>
+    <t>粘液（香草）</t>
+  </si>
+  <si>
+    <t>Slime Rancher</t>
+  </si>
+  <si>
+    <t>粘液牧场主</t>
+  </si>
+  <si>
+    <t>Slimefun</t>
+  </si>
+  <si>
+    <t>Sly Cooper</t>
+  </si>
+  <si>
+    <t>狡猾的库珀</t>
+  </si>
+  <si>
+    <t>Smite Gods</t>
+  </si>
+  <si>
+    <t>Smoking</t>
+  </si>
+  <si>
+    <t>吸烟</t>
+  </si>
+  <si>
+    <t>Smurfs</t>
+  </si>
+  <si>
+    <t>蓝精灵</t>
+  </si>
+  <si>
+    <t>Snow Fight</t>
+  </si>
+  <si>
+    <t>雪战</t>
+  </si>
+  <si>
+    <t>Snow Sculpture</t>
+  </si>
+  <si>
+    <t>雪雕</t>
+  </si>
+  <si>
+    <t>Snow White and the Seven Dwarfs</t>
+  </si>
+  <si>
+    <t>白雪公主和七个小矮人</t>
+  </si>
+  <si>
+    <t>Songs of War</t>
+  </si>
+  <si>
+    <t>战歌</t>
+  </si>
+  <si>
+    <t>Sonic the Hedgehog</t>
+  </si>
+  <si>
+    <t>刺猬索尼克</t>
+  </si>
+  <si>
+    <t>Soul Knight</t>
+  </si>
+  <si>
+    <t>灵魂骑士</t>
+  </si>
+  <si>
+    <t>South Park</t>
+  </si>
+  <si>
+    <t>南方公园</t>
+  </si>
+  <si>
+    <t>Space Travel</t>
+  </si>
+  <si>
+    <t>太空旅行</t>
+  </si>
+  <si>
+    <t>Spawn Egg</t>
+  </si>
+  <si>
+    <t>再生蛋</t>
+  </si>
+  <si>
+    <t>Spawner</t>
+  </si>
+  <si>
+    <t>产卵器</t>
+  </si>
+  <si>
+    <t>Spelunky</t>
+  </si>
+  <si>
+    <t>蜘蛛侠</t>
+  </si>
+  <si>
+    <t>Spider</t>
+  </si>
+  <si>
+    <t>蜘蛛</t>
+  </si>
+  <si>
+    <t>Spider (Vanilla)</t>
+  </si>
+  <si>
+    <t>蜘蛛（香草）</t>
+  </si>
+  <si>
+    <t>Spiderman</t>
+  </si>
+  <si>
+    <t>Spirited Away</t>
+  </si>
+  <si>
+    <t>飞驰人生</t>
+  </si>
+  <si>
+    <t>Splatoon</t>
+  </si>
+  <si>
+    <t>魂斗罗</t>
+  </si>
+  <si>
+    <t>Spongebob Squarepants</t>
+  </si>
+  <si>
+    <t>海绵宝宝</t>
+  </si>
+  <si>
+    <t>Spooky's Jump Scare Mansion</t>
+  </si>
+  <si>
+    <t>幽灵跳跃惊吓屋</t>
+  </si>
+  <si>
+    <t>Spore</t>
+  </si>
+  <si>
+    <t>孢子</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>体育</t>
+  </si>
+  <si>
+    <t>Spreads</t>
+  </si>
+  <si>
+    <t>传播</t>
+  </si>
+  <si>
+    <t>Spring to Life</t>
+  </si>
+  <si>
+    <t>生命之泉</t>
+  </si>
+  <si>
+    <t>Spy x Family</t>
+  </si>
+  <si>
+    <t>间谍 x 家庭</t>
+  </si>
+  <si>
+    <t>Spyro</t>
+  </si>
+  <si>
+    <t>斯派罗</t>
+  </si>
+  <si>
+    <t>Squid Game</t>
+  </si>
+  <si>
+    <t>乌贼游戏</t>
+  </si>
+  <si>
+    <t>St. Patrick's Day</t>
+  </si>
+  <si>
+    <t>圣帕特里克节</t>
+  </si>
+  <si>
+    <t>StackUp</t>
+  </si>
+  <si>
+    <t>叠叠乐</t>
+  </si>
+  <si>
+    <t>Star Fox</t>
+  </si>
+  <si>
+    <t>星际迷航</t>
+  </si>
+  <si>
+    <t>Star Trek</t>
+  </si>
+  <si>
+    <t>Star vs the Forces of Evil</t>
+  </si>
+  <si>
+    <t>明星大战邪恶势力</t>
+  </si>
+  <si>
+    <t>Star Wars</t>
+  </si>
+  <si>
+    <t>星球大战</t>
+  </si>
+  <si>
+    <t>Star Wars Helmet</t>
+  </si>
+  <si>
+    <t>星球大战头盔</t>
+  </si>
+  <si>
+    <t>Star Wars Trooper Helmet</t>
+  </si>
+  <si>
+    <t>星球大战士兵头盔</t>
+  </si>
+  <si>
+    <t>Starbucks</t>
+  </si>
+  <si>
+    <t>星巴克</t>
+  </si>
+  <si>
+    <t>StarCraft</t>
+  </si>
+  <si>
+    <t>Stardew Valley</t>
+  </si>
+  <si>
+    <t>星露谷</t>
+  </si>
+  <si>
+    <t>Starter Pokemon</t>
+  </si>
+  <si>
+    <t>入门小精灵</t>
+  </si>
+  <si>
+    <t>Stationery</t>
+  </si>
+  <si>
+    <t>文具</t>
+  </si>
+  <si>
+    <t>Steampunk</t>
+  </si>
+  <si>
+    <t>蒸汽朋克</t>
+  </si>
+  <si>
+    <t>Steins;Gate</t>
+  </si>
+  <si>
+    <t>蒸汽之门</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
+    <t>史蒂夫</t>
+  </si>
+  <si>
+    <t>Steven Universe</t>
+  </si>
+  <si>
+    <t>史蒂芬宇宙</t>
+  </si>
+  <si>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>石头</t>
+  </si>
+  <si>
+    <t>Storage (other)</t>
+  </si>
+  <si>
+    <t>存储（其他）</t>
+  </si>
+  <si>
+    <t>Stranger Things</t>
+  </si>
+  <si>
+    <t>怪奇物语</t>
+  </si>
+  <si>
+    <t>Street Fighter</t>
+  </si>
+  <si>
+    <t>街头霸王</t>
+  </si>
+  <si>
+    <t>Strider</t>
+  </si>
+  <si>
+    <t>黾</t>
+  </si>
+  <si>
+    <t>Subnautica</t>
+  </si>
+  <si>
+    <t>Summer</t>
+  </si>
+  <si>
+    <t>夏季</t>
+  </si>
+  <si>
+    <t>Sunglasses</t>
+  </si>
+  <si>
+    <t>太阳镜</t>
+  </si>
+  <si>
+    <t>Super Mario</t>
+  </si>
+  <si>
+    <t>超级马里奥</t>
+  </si>
+  <si>
+    <t>Supernatural</t>
+  </si>
+  <si>
+    <t>超自然</t>
+  </si>
+  <si>
+    <t>Surprised Creature</t>
+  </si>
+  <si>
+    <t>惊讶的生物</t>
+  </si>
+  <si>
+    <t>Surprised Person</t>
+  </si>
+  <si>
+    <t>惊讶的人</t>
+  </si>
+  <si>
+    <t>Sushi</t>
+  </si>
+  <si>
+    <t>寿司</t>
+  </si>
+  <si>
+    <t>Swamp</t>
+  </si>
+  <si>
+    <t>沼泽</t>
+  </si>
+  <si>
+    <t>Sword Art Online</t>
+  </si>
+  <si>
+    <t>剑侠情缘</t>
+  </si>
+  <si>
+    <t>TaleSpin</t>
+  </si>
+  <si>
+    <t>Tangled</t>
+  </si>
+  <si>
+    <t>唐吉诃德</t>
+  </si>
+  <si>
+    <t>Tattletail</t>
+  </si>
+  <si>
+    <t>小尾巴</t>
+  </si>
+  <si>
+    <t>Team Fortress 2</t>
+  </si>
+  <si>
+    <t>团队要塞 2</t>
+  </si>
+  <si>
+    <t>Teletubbies</t>
+  </si>
+  <si>
+    <t>天线宝宝</t>
+  </si>
+  <si>
+    <t>Terraria</t>
+  </si>
+  <si>
+    <t>泰拉瑞亚</t>
+  </si>
+  <si>
+    <t>Terraria (Calamity)</t>
+  </si>
+  <si>
+    <t>泰拉瑞亚（灾难）</t>
+  </si>
+  <si>
+    <t>Tetris</t>
+  </si>
+  <si>
+    <t>俄罗斯方块</t>
+  </si>
+  <si>
+    <t>Thanksgiving</t>
+  </si>
+  <si>
+    <t>感恩节</t>
+  </si>
+  <si>
+    <t>That Time I Got Reincarnated as a Slime</t>
+  </si>
+  <si>
+    <t>那次我转世成了史莱姆</t>
+  </si>
+  <si>
+    <t>Thaumcraft</t>
+  </si>
+  <si>
+    <t>泰姆工艺</t>
+  </si>
+  <si>
+    <t>The Adventures of Tintin</t>
+  </si>
+  <si>
+    <t>丁丁历险记</t>
+  </si>
+  <si>
+    <t>The Amazing Digital Circus</t>
+  </si>
+  <si>
+    <t>神奇的数字马戏团</t>
+  </si>
+  <si>
+    <t>The Amazing World of Gumball</t>
+  </si>
+  <si>
+    <t>口香糖球的奇妙世界</t>
+  </si>
+  <si>
+    <t>The Binding of Isaac</t>
+  </si>
+  <si>
+    <t>以撒的结合</t>
+  </si>
+  <si>
+    <t>The Boys</t>
+  </si>
+  <si>
+    <t>男孩</t>
+  </si>
+  <si>
+    <t>The Cat Returns</t>
+  </si>
+  <si>
+    <t>猫咪归来</t>
+  </si>
+  <si>
+    <t>The Conjuring</t>
+  </si>
+  <si>
+    <t>魔术师</t>
+  </si>
+  <si>
+    <t>The Copper Age</t>
+  </si>
+  <si>
+    <t>铜器时代</t>
+  </si>
+  <si>
+    <t>The Emperor's New Groove</t>
+  </si>
+  <si>
+    <t>皇帝的新装</t>
+  </si>
+  <si>
+    <t>The English Ensemble Stars</t>
+  </si>
+  <si>
+    <t>英国合奏明星</t>
+  </si>
+  <si>
+    <t>The Fairly OddParents</t>
+  </si>
+  <si>
+    <t>奇异父母</t>
+  </si>
+  <si>
+    <t>The Finals</t>
+  </si>
+  <si>
+    <t>总决赛</t>
+  </si>
+  <si>
+    <t>The Flash</t>
+  </si>
+  <si>
+    <t>闪电侠</t>
+  </si>
+  <si>
+    <t>The Flintstones</t>
+  </si>
+  <si>
+    <t>打火石</t>
+  </si>
+  <si>
+    <t>The Fly</t>
+  </si>
+  <si>
+    <t>苍蝇</t>
+  </si>
+  <si>
+    <t>The Garden Awakens</t>
+  </si>
+  <si>
+    <t>花园觉醒</t>
+  </si>
+  <si>
+    <t>The Good Dinosaur</t>
+  </si>
+  <si>
+    <t>好恐龙</t>
+  </si>
+  <si>
+    <t>The Great Mouse Detective</t>
+  </si>
+  <si>
+    <t>老鼠大侦探</t>
+  </si>
+  <si>
+    <t>The Grim Adventures of Billy &amp; Mandy</t>
+  </si>
+  <si>
+    <t>比利和曼迪的严峻历险</t>
+  </si>
+  <si>
+    <t>The Hunchback of Notre Dame</t>
+  </si>
+  <si>
+    <t>圣母院驼背</t>
+  </si>
+  <si>
+    <t>The Iron Giant</t>
+  </si>
+  <si>
+    <t>钢铁巨人</t>
+  </si>
+  <si>
+    <t>The Last Guardian</t>
+  </si>
+  <si>
+    <t>最后的守护者</t>
+  </si>
+  <si>
+    <t>The Last of Us</t>
+  </si>
+  <si>
+    <t>最后的我们</t>
+  </si>
+  <si>
+    <t>The Legend of Zelda</t>
+  </si>
+  <si>
+    <t>塞尔达传说</t>
+  </si>
+  <si>
+    <t>The Lorax</t>
+  </si>
+  <si>
+    <t>洛莱克斯</t>
+  </si>
+  <si>
+    <t>The Neverhood</t>
+  </si>
+  <si>
+    <t>梦幻童年</t>
+  </si>
+  <si>
+    <t>The Owl House</t>
+  </si>
+  <si>
+    <t>猫头鹰之家</t>
+  </si>
+  <si>
+    <t>The Princess and the Frog</t>
+  </si>
+  <si>
+    <t>公主与青蛙</t>
+  </si>
+  <si>
+    <t>The Ren &amp; Stimpy Show</t>
+  </si>
+  <si>
+    <t>任和史提比秀</t>
+  </si>
+  <si>
+    <t>The Road to El Dorado</t>
+  </si>
+  <si>
+    <t>通往埃尔多拉多之路</t>
+  </si>
+  <si>
+    <t>The Texas Chainsaw Massacre</t>
+  </si>
+  <si>
+    <t>德州电锯杀人狂</t>
+  </si>
+  <si>
+    <t>The Three Caballeros</t>
+  </si>
+  <si>
+    <t>三个角斗士</t>
+  </si>
+  <si>
+    <t>The Walten Files</t>
+  </si>
+  <si>
+    <t>华腾档案</t>
+  </si>
+  <si>
+    <t>The Woody Woodpecker Show</t>
+  </si>
+  <si>
+    <t>啄木鸟伍迪秀</t>
+  </si>
+  <si>
+    <t>Thomas &amp; Friends</t>
+  </si>
+  <si>
+    <t>托马斯和朋友</t>
+  </si>
+  <si>
+    <t>Thor</t>
+  </si>
+  <si>
+    <t>雷神</t>
+  </si>
+  <si>
+    <t>Those Nights at Rachel's</t>
+  </si>
+  <si>
+    <t>雷切尔的那些夜晚</t>
+  </si>
+  <si>
+    <t>Tinker's Construct</t>
+  </si>
+  <si>
+    <t>修补匠的构造</t>
+  </si>
+  <si>
+    <t>Titanfall</t>
+  </si>
+  <si>
+    <t>泰坦陨落</t>
+  </si>
+  <si>
+    <t>Tokyo Ghoul</t>
+  </si>
+  <si>
+    <t>东京食尸鬼</t>
+  </si>
+  <si>
+    <t>Tom and Jerry</t>
+  </si>
+  <si>
+    <t>汤姆和杰瑞</t>
+  </si>
+  <si>
+    <t>Tomb Raider</t>
+  </si>
+  <si>
+    <t>古墓丽影</t>
+  </si>
+  <si>
+    <t>Tomorrow's Pioneers</t>
+  </si>
+  <si>
+    <t>明日先锋</t>
+  </si>
+  <si>
+    <t>Tooth Gap</t>
+  </si>
+  <si>
+    <t>齿隙</t>
+  </si>
+  <si>
+    <t>Toradora</t>
+  </si>
+  <si>
+    <t>Total Drama Island</t>
+  </si>
+  <si>
+    <t>全剧岛</t>
+  </si>
+  <si>
+    <t>Touhou Project</t>
+  </si>
+  <si>
+    <t>东宝计划</t>
+  </si>
+  <si>
+    <t>Toy</t>
+  </si>
+  <si>
+    <t>玩具</t>
+  </si>
+  <si>
+    <t>Toy Story</t>
+  </si>
+  <si>
+    <t>玩具总动员</t>
+  </si>
+  <si>
+    <t>Traffic</t>
+  </si>
+  <si>
+    <t>交通</t>
+  </si>
+  <si>
+    <t>Traffic Light</t>
+  </si>
+  <si>
+    <t>交通灯</t>
+  </si>
+  <si>
+    <t>Traffic Sign</t>
+  </si>
+  <si>
+    <t>交通标志</t>
+  </si>
+  <si>
+    <t>Trails and Tales</t>
+  </si>
+  <si>
+    <t>小径和故事</t>
+  </si>
+  <si>
+    <t>Transformers</t>
+  </si>
+  <si>
+    <t>变形金刚</t>
+  </si>
+  <si>
+    <t>Transformice</t>
+  </si>
+  <si>
+    <t>Transparent Head</t>
+  </si>
+  <si>
+    <t>透明头</t>
+  </si>
+  <si>
+    <t>Trash Can</t>
+  </si>
+  <si>
+    <t>垃圾桶</t>
+  </si>
+  <si>
+    <t>Treasure</t>
+  </si>
+  <si>
+    <t>宝藏</t>
+  </si>
+  <si>
+    <t>Treasure Planet</t>
+  </si>
+  <si>
+    <t>宝藏星球</t>
+  </si>
+  <si>
+    <t>Tricky Trials Update</t>
+  </si>
+  <si>
+    <t>棘手的考验更新</t>
+  </si>
+  <si>
+    <t>Tron</t>
+  </si>
+  <si>
+    <t>创</t>
+  </si>
+  <si>
+    <t>Turtle</t>
+  </si>
+  <si>
+    <t>乌龟</t>
+  </si>
+  <si>
+    <t>Twilight Forest</t>
+  </si>
+  <si>
+    <t>暮光森林</t>
+  </si>
+  <si>
+    <t>Twisted Wonderland</t>
+  </si>
+  <si>
+    <t>扭曲仙境</t>
+  </si>
+  <si>
+    <t>Ultrakill</t>
+  </si>
+  <si>
+    <t>超杀</t>
+  </si>
+  <si>
+    <t>Umineko - When They Cry</t>
+  </si>
+  <si>
+    <t>海之子 - 当他们哭泣</t>
+  </si>
+  <si>
+    <t>Undertale</t>
+  </si>
+  <si>
+    <t>地下物语</t>
+  </si>
+  <si>
+    <t>Undertale AU</t>
+  </si>
+  <si>
+    <t>暗黑 AU</t>
+  </si>
+  <si>
+    <t>Undertale Yellow</t>
+  </si>
+  <si>
+    <t>暗黑黄</t>
+  </si>
+  <si>
+    <t>Universal Symbol</t>
+  </si>
+  <si>
+    <t>宇宙符号</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>向上</t>
+  </si>
+  <si>
+    <t>Urban Wildlife</t>
+  </si>
+  <si>
+    <t>城市野生动物</t>
+  </si>
+  <si>
+    <t>V for Vendetta</t>
+  </si>
+  <si>
+    <t>Valentines</t>
+  </si>
+  <si>
+    <t>情人节</t>
+  </si>
+  <si>
+    <t>Valorant</t>
+  </si>
+  <si>
+    <t>Vanilla (removed)</t>
+  </si>
+  <si>
+    <t>香草（已删除）</t>
+  </si>
+  <si>
+    <t>Vanilla Block</t>
+  </si>
+  <si>
+    <t>香草块</t>
+  </si>
+  <si>
+    <t>Vanilla Food</t>
+  </si>
+  <si>
+    <t>香草食品</t>
+  </si>
+  <si>
+    <t>Vanilla Helmet</t>
+  </si>
+  <si>
+    <t>香草头盔</t>
+  </si>
+  <si>
+    <t>Vanilla Item</t>
+  </si>
+  <si>
+    <t>香草物品</t>
+  </si>
+  <si>
+    <t>Vanilla Mob</t>
+  </si>
+  <si>
+    <t>香草暴徒</t>
+  </si>
+  <si>
+    <t>Vault Hunters</t>
+  </si>
+  <si>
+    <t>金库猎人</t>
+  </si>
+  <si>
+    <t>Vegetable</t>
+  </si>
+  <si>
+    <t>蔬菜</t>
+  </si>
+  <si>
+    <t>Vehicle</t>
+  </si>
+  <si>
+    <t>车辆</t>
+  </si>
+  <si>
+    <t>Vikings</t>
+  </si>
+  <si>
+    <t>维京人</t>
+  </si>
+  <si>
+    <t>Villager</t>
+  </si>
+  <si>
+    <t>村民</t>
+  </si>
+  <si>
+    <t>Villager (Desert)</t>
+  </si>
+  <si>
+    <t>村民（沙漠）</t>
+  </si>
+  <si>
+    <t>Villager (Jungle)</t>
+  </si>
+  <si>
+    <t>村民（丛林）</t>
+  </si>
+  <si>
+    <t>Villager (Plains)</t>
+  </si>
+  <si>
+    <t>村民（平原）</t>
+  </si>
+  <si>
+    <t>Villager (Savanna)</t>
+  </si>
+  <si>
+    <t>村民（草原）</t>
+  </si>
+  <si>
+    <t>Villager (Snowy Tundra)</t>
+  </si>
+  <si>
+    <t>村民（苔原雪原）</t>
+  </si>
+  <si>
+    <t>Villager (Swamp)</t>
+  </si>
+  <si>
+    <t>村民（沼泽）</t>
+  </si>
+  <si>
+    <t>Villager (Taiga)</t>
+  </si>
+  <si>
+    <t>村民（泰加针叶林）</t>
+  </si>
+  <si>
+    <t>Virtual Youtuber</t>
+  </si>
+  <si>
+    <t>虚拟优酷</t>
+  </si>
+  <si>
+    <t>Vocaloid</t>
+  </si>
+  <si>
+    <t>虚拟歌手</t>
+  </si>
+  <si>
+    <t>Voltron</t>
+  </si>
+  <si>
+    <t>伏特龙</t>
+  </si>
+  <si>
+    <t>Wakfu</t>
+  </si>
+  <si>
+    <t>若夫</t>
+  </si>
+  <si>
+    <t>Walking Dead</t>
+  </si>
+  <si>
+    <t>行尸走肉</t>
+  </si>
+  <si>
+    <t>Wall-E</t>
+  </si>
+  <si>
+    <t>华莱士与格罗米特</t>
+  </si>
+  <si>
+    <t>Wallace and Gromit</t>
+  </si>
+  <si>
+    <t>War of the Worlds</t>
+  </si>
+  <si>
+    <t>世界大战</t>
+  </si>
+  <si>
+    <t>Warcraft</t>
+  </si>
+  <si>
+    <t>魔兽争霸</t>
+  </si>
+  <si>
+    <t>Warframe</t>
+  </si>
+  <si>
+    <t>Warhammer</t>
+  </si>
+  <si>
+    <t>战锤</t>
+  </si>
+  <si>
+    <t>Warrior Cats</t>
+  </si>
+  <si>
+    <t>勇士猫</t>
+  </si>
+  <si>
+    <t>We Bear Bears</t>
+  </si>
+  <si>
+    <t>我们熊熊</t>
+  </si>
+  <si>
+    <t>We Happy Few</t>
+  </si>
+  <si>
+    <t>我们是快乐的少数</t>
+  </si>
+  <si>
+    <t>Weather</t>
+  </si>
+  <si>
+    <t>天气</t>
+  </si>
+  <si>
+    <t>Welcome Home</t>
+  </si>
+  <si>
+    <t>欢迎回家</t>
+  </si>
+  <si>
+    <t>Who is this?</t>
+  </si>
+  <si>
+    <t>这是谁？</t>
+  </si>
+  <si>
+    <t>Wild Update</t>
+  </si>
+  <si>
+    <t>野性更新</t>
+  </si>
+  <si>
+    <t>Wings of Fire</t>
+  </si>
+  <si>
+    <t>火之翼</t>
+  </si>
+  <si>
+    <t>Winnie the Pooh</t>
+  </si>
+  <si>
+    <t>小熊维尼</t>
+  </si>
+  <si>
+    <t>Winter</t>
+  </si>
+  <si>
+    <t>冬天</t>
+  </si>
+  <si>
+    <t>Witcher</t>
+  </si>
+  <si>
+    <t>巫师</t>
+  </si>
+  <si>
+    <t>Wonderful Wonder World</t>
+  </si>
+  <si>
+    <t>奇妙仙境</t>
+  </si>
+  <si>
+    <t>Wood</t>
+  </si>
+  <si>
+    <t>木头</t>
+  </si>
+  <si>
+    <t>Wool</t>
+  </si>
+  <si>
+    <t>羊毛</t>
+  </si>
+  <si>
+    <t>Work Safety Helmet</t>
+  </si>
+  <si>
+    <t>工作安全帽</t>
+  </si>
+  <si>
+    <t>Wreck It Ralph</t>
+  </si>
+  <si>
+    <t>无敌破坏王</t>
+  </si>
+  <si>
+    <t>Wybel</t>
+  </si>
+  <si>
+    <t>Wynncraft</t>
+  </si>
+  <si>
+    <t>X-Men</t>
+  </si>
+  <si>
+    <t>X 战警</t>
+  </si>
+  <si>
+    <t>Xenoblade Chronicles</t>
+  </si>
+  <si>
+    <t>Yandere Simulator</t>
+  </si>
+  <si>
+    <t>荡妇模拟器</t>
+  </si>
+  <si>
+    <t>Yellow Submarine</t>
+  </si>
+  <si>
+    <t>黄色潜水艇</t>
+  </si>
+  <si>
+    <t>Yokai</t>
+  </si>
+  <si>
+    <t>横行霸道</t>
+  </si>
+  <si>
+    <t>Yooka Laylee</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>年轻</t>
+  </si>
+  <si>
+    <t>Youtube</t>
+  </si>
+  <si>
+    <t>Yu-Gi-Oh</t>
+  </si>
+  <si>
+    <t>游戏王</t>
+  </si>
+  <si>
+    <t>Yume Nikki</t>
+  </si>
+  <si>
+    <t>梦幻妮琪</t>
+  </si>
+  <si>
+    <t>Zero no Tsukaima</t>
+  </si>
+  <si>
+    <t>零之月</t>
+  </si>
+  <si>
+    <t>Zero Wing</t>
+  </si>
+  <si>
+    <t>零之翼</t>
+  </si>
+  <si>
+    <t>Zodiac Sign</t>
+  </si>
+  <si>
+    <t>黄道十二宫</t>
+  </si>
+  <si>
+    <t>Zombie</t>
+  </si>
+  <si>
+    <t>僵尸</t>
+  </si>
+  <si>
+    <t>Zombie (Vanilla)</t>
+  </si>
+  <si>
+    <t>僵尸（香草）</t>
+  </si>
+  <si>
+    <t>Zootopia</t>
+  </si>
+  <si>
     <t>Hypixel (Mutations) Tag</t>
   </si>
   <si>
     <t>超像素（变异）标签</t>
-  </si>
-  <si>
-    <t>Hypixel (NPC)</t>
-  </si>
-  <si>
-    <t>Hypixel（NPC）</t>
-  </si>
-  <si>
-    <t>Hypixel (Pets)</t>
-  </si>
-  <si>
-    <t>超像素（宠物）</t>
-  </si>
-  <si>
-    <t>Hypixel (Reforge Stone)</t>
-  </si>
-  <si>
-    <t>Hypixel（锻造石）</t>
-  </si>
-  <si>
-    <t>Hypixel (Sacks)</t>
-  </si>
-  <si>
-    <t>像素（麻袋）</t>
-  </si>
-  <si>
-    <t>Hypixel (Skins)</t>
-  </si>
-  <si>
-    <t>像素（皮肤）</t>
-  </si>
-  <si>
-    <t>Hypixel (Talismans)</t>
-  </si>
-  <si>
-    <t>像素（护符）</t>
-  </si>
-  <si>
-    <t>Hypixel (Trophy Fish)</t>
-  </si>
-  <si>
-    <t>Hypixel（奖杯鱼）</t>
-  </si>
-  <si>
-    <t>Hōseki no Kuni (Land of the Lustrous)</t>
-  </si>
-  <si>
-    <t>色之国</t>
-  </si>
-  <si>
-    <t>Ib</t>
-  </si>
-  <si>
-    <t>Ice Age</t>
-  </si>
-  <si>
-    <t>冰河世纪</t>
-  </si>
-  <si>
-    <t>Ice Climber</t>
-  </si>
-  <si>
-    <t>攀冰</t>
-  </si>
-  <si>
-    <t>Ice Cream</t>
-  </si>
-  <si>
-    <t>冰激凌</t>
-  </si>
-  <si>
-    <t>Icons (GUI)</t>
-  </si>
-  <si>
-    <t>图标（图形用户界面）</t>
-  </si>
-  <si>
-    <t>Icons (Ironblock)</t>
-  </si>
-  <si>
-    <t>图标（铁块）</t>
-  </si>
-  <si>
-    <t>Icons (Other)</t>
-  </si>
-  <si>
-    <t>图标（其他）</t>
-  </si>
-  <si>
-    <t>Icons (white background)</t>
-  </si>
-  <si>
-    <t>图标（白色背景）</t>
-  </si>
-  <si>
-    <t>Identity V</t>
-  </si>
-  <si>
-    <t>标识 V</t>
-  </si>
-  <si>
-    <t>Illager</t>
-  </si>
-  <si>
-    <t>幻灯片</t>
-  </si>
-  <si>
-    <t>Inazuma Eleven</t>
-  </si>
-  <si>
-    <t>犬马十一人</t>
-  </si>
-  <si>
-    <t>Incredibles</t>
-  </si>
-  <si>
-    <t>超人特攻队</t>
-  </si>
-  <si>
-    <t>Indiana Jones</t>
-  </si>
-  <si>
-    <t>夺宝奇兵</t>
-  </si>
-  <si>
-    <t>Indigo Park</t>
-  </si>
-  <si>
-    <t>靛蓝公园</t>
-  </si>
-  <si>
-    <t>Injuries</t>
-  </si>
-  <si>
-    <t>受伤</t>
-  </si>
-  <si>
-    <t>Inner Layer Block</t>
-  </si>
-  <si>
-    <t>内层方块</t>
-  </si>
-  <si>
-    <t>Inscryption</t>
-  </si>
-  <si>
-    <t>加密</t>
-  </si>
-  <si>
-    <t>Insect</t>
-  </si>
-  <si>
-    <t>昆虫</t>
-  </si>
-  <si>
-    <t>Inside Out</t>
-  </si>
-  <si>
-    <t>内层</t>
-  </si>
-  <si>
-    <t>Inu Yasha</t>
-  </si>
-  <si>
-    <t>犬夜叉</t>
-  </si>
-  <si>
-    <t>Invader Zim</t>
-  </si>
-  <si>
-    <t>齐姆入侵者</t>
-  </si>
-  <si>
-    <t>Invincible</t>
-  </si>
-  <si>
-    <t>无敌</t>
-  </si>
-  <si>
-    <t>Iron Man</t>
-  </si>
-  <si>
-    <t>钢铁侠</t>
-  </si>
-  <si>
-    <t>It</t>
-  </si>
-  <si>
-    <t>它</t>
-  </si>
-  <si>
-    <t>Jak and Daxter</t>
-  </si>
-  <si>
-    <t>雅各与达克斯特</t>
-  </si>
-  <si>
-    <t>Japan</t>
-  </si>
-  <si>
-    <t>日本</t>
-  </si>
-  <si>
-    <t>Jar</t>
-  </si>
-  <si>
-    <t>罐子</t>
-  </si>
-  <si>
-    <t>Jewelry</t>
-  </si>
-  <si>
-    <t>珠宝</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure</t>
-  </si>
-  <si>
-    <t>乔乔的奇异冒险</t>
-  </si>
-  <si>
-    <t>JoJo's Bizarre Adventure (Stand)</t>
-  </si>
-  <si>
-    <t>JoJo的奇异冒险（支架）</t>
-  </si>
-  <si>
-    <t>Journey</t>
-  </si>
-  <si>
-    <t>旅程</t>
-  </si>
-  <si>
-    <t>Jujutsu Kaisen</t>
-  </si>
-  <si>
-    <t>柔术开山</t>
-  </si>
-  <si>
-    <t>Jump King</t>
-  </si>
-  <si>
-    <t>跳跃大王</t>
-  </si>
-  <si>
-    <t>Jurassic Park</t>
-  </si>
-  <si>
-    <t>侏罗纪公园</t>
-  </si>
-  <si>
-    <t>Justice League</t>
-  </si>
-  <si>
-    <t>正义联盟</t>
-  </si>
-  <si>
-    <t>Kaiju Paradise</t>
-  </si>
-  <si>
-    <t>怪兽乐园</t>
-  </si>
-  <si>
-    <t>Kakegurui</t>
-  </si>
-  <si>
-    <t>笕渠</t>
-  </si>
-  <si>
-    <t>Karate Kid</t>
-  </si>
-  <si>
-    <t>空手道小子</t>
-  </si>
-  <si>
-    <t>Katamari Damacy</t>
-  </si>
-  <si>
-    <t>卡塔马里-达玛西</t>
-  </si>
-  <si>
-    <t>Kid Icarus</t>
-  </si>
-  <si>
-    <t>伊卡洛斯小子</t>
-  </si>
-  <si>
-    <t>Kiki's Delivery Service</t>
-  </si>
-  <si>
-    <t>琪琪宅急便</t>
-  </si>
-  <si>
-    <t>Kill la Kill</t>
-  </si>
-  <si>
-    <t>Killzone</t>
-  </si>
-  <si>
-    <t>杀戮地带</t>
-  </si>
-  <si>
-    <t>Kim Possible</t>
-  </si>
-  <si>
-    <t>金正日</t>
-  </si>
-  <si>
-    <t>Kimetsu no Yaiba</t>
-  </si>
-  <si>
-    <t>金月八叶</t>
-  </si>
-  <si>
-    <t>Kingdom Hearts</t>
-  </si>
-  <si>
-    <t>王国之心</t>
-  </si>
-  <si>
-    <t>Kirby</t>
-  </si>
-  <si>
-    <t>科比</t>
-  </si>
-  <si>
-    <t>Kitchen</t>
-  </si>
-  <si>
-    <t>厨房</t>
-  </si>
-  <si>
-    <t>KonoSuba</t>
-  </si>
-  <si>
-    <t>科诺苏巴</t>
-  </si>
-  <si>
-    <t>Koopalings</t>
-  </si>
-  <si>
-    <t>酷比魔方</t>
-  </si>
-  <si>
-    <t>Kung Fu Panda</t>
-  </si>
-  <si>
-    <t>功夫熊猫</t>
-  </si>
-  <si>
-    <t>Kuroko no Basuke</t>
-  </si>
-  <si>
-    <t>黑子之助</t>
-  </si>
-  <si>
-    <t>Lamp Shade</t>
-  </si>
-  <si>
-    <t>灯罩</t>
-  </si>
-  <si>
-    <t>Landscape</t>
-  </si>
-  <si>
-    <t>风景</t>
-  </si>
-  <si>
-    <t>Lantern</t>
-  </si>
-  <si>
-    <t>灯笼</t>
-  </si>
-  <si>
-    <t>Laputa: Castle in the Sky</t>
-  </si>
-  <si>
-    <t>拉普达：空中城堡</t>
-  </si>
-  <si>
-    <t>LazyTown</t>
-  </si>
-  <si>
-    <t>懒人镇</t>
-  </si>
-  <si>
-    <t>League of Legends</t>
-  </si>
-  <si>
-    <t>英雄联盟</t>
-  </si>
-  <si>
-    <t>Left 4 Dead</t>
-  </si>
-  <si>
-    <t>左 4 死</t>
-  </si>
-  <si>
-    <t>Legendary Pokemon</t>
-  </si>
-  <si>
-    <t>传奇口袋妖怪</t>
-  </si>
-  <si>
-    <t>Lego</t>
-  </si>
-  <si>
-    <t>乐高</t>
-  </si>
-  <si>
-    <t>Lethal League</t>
-  </si>
-  <si>
-    <t>致命联盟</t>
-  </si>
-  <si>
-    <t>Library of Ruina</t>
-  </si>
-  <si>
-    <t>鲁伊纳图书馆</t>
-  </si>
-  <si>
-    <t>Life is Strange</t>
-  </si>
-  <si>
-    <t>奇异人生</t>
-  </si>
-  <si>
-    <t>Lilo &amp; Stitch</t>
-  </si>
-  <si>
-    <t>莉萝与史迪奇</t>
-  </si>
-  <si>
-    <t>Limbus Company</t>
-  </si>
-  <si>
-    <t>林巴斯公司</t>
-  </si>
-  <si>
-    <t>Lion King</t>
-  </si>
-  <si>
-    <t>狮子王</t>
-  </si>
-  <si>
-    <t>Little Big Planet</t>
-  </si>
-  <si>
-    <t>小小大星球</t>
-  </si>
-  <si>
-    <t>Little Mermaid</t>
-  </si>
-  <si>
-    <t>小美人鱼</t>
-  </si>
-  <si>
-    <t>Little Nightmares</t>
-  </si>
-  <si>
-    <t>小恶梦</t>
-  </si>
-  <si>
-    <t>Little Shop of Horrors</t>
-  </si>
-  <si>
-    <t>恐怖小店</t>
-  </si>
-  <si>
-    <t>Little Witch Academia</t>
-  </si>
-  <si>
-    <t>小女巫学院</t>
-  </si>
-  <si>
-    <t>Llama</t>
-  </si>
-  <si>
-    <t>拉玛</t>
-  </si>
-  <si>
-    <t>Logo</t>
-  </si>
-  <si>
-    <t>标志</t>
-  </si>
-  <si>
-    <t>Looney Tunes</t>
-  </si>
-  <si>
-    <t>鲁尼卡通</t>
-  </si>
-  <si>
-    <t>Lord of the Rings</t>
-  </si>
-  <si>
-    <t>魔戒</t>
-  </si>
-  <si>
-    <t>Love Live!</t>
-  </si>
-  <si>
-    <t>爱在现场</t>
-  </si>
-  <si>
-    <t>Lovestruck Creature</t>
-  </si>
-  <si>
-    <t>痴情生物</t>
-  </si>
-  <si>
-    <t>Lovestruck Person</t>
-  </si>
-  <si>
-    <t>痴情人</t>
-  </si>
-  <si>
-    <t>Lucky Luke</t>
-  </si>
-  <si>
-    <t>幸运卢克</t>
-  </si>
-  <si>
-    <t>Machine Part</t>
-  </si>
-  <si>
-    <t>机器零件</t>
-  </si>
-  <si>
-    <t>Mad Father</t>
-  </si>
-  <si>
-    <t>疯狂的父亲</t>
-  </si>
-  <si>
-    <t>Mad Max</t>
-  </si>
-  <si>
-    <t>疯狂的麦克斯</t>
-  </si>
-  <si>
-    <t>Made in Abyss</t>
-  </si>
-  <si>
-    <t>深渊制造</t>
-  </si>
-  <si>
-    <t>Madness Combat</t>
-  </si>
-  <si>
-    <t>疯狂战斗</t>
-  </si>
-  <si>
-    <t>Madoka Magica</t>
-  </si>
-  <si>
-    <t>疯狂魔卡</t>
-  </si>
-  <si>
-    <t>Makeup</t>
-  </si>
-  <si>
-    <t>化妆</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>男</t>
-  </si>
-  <si>
-    <t>Mao Mao Heroes of Pure Heart</t>
-  </si>
-  <si>
-    <t>毛毛英雄传</t>
-  </si>
-  <si>
-    <t>MapleStory</t>
-  </si>
-  <si>
-    <t>枫之故事</t>
-  </si>
-  <si>
-    <t>Marvel</t>
-  </si>
-  <si>
-    <t>奇迹</t>
-  </si>
-  <si>
-    <t>Mary and the Witch's Flower</t>
-  </si>
-  <si>
-    <t>玛丽与魔女之花</t>
-  </si>
-  <si>
-    <t>Mascot</t>
-  </si>
-  <si>
-    <t>吉祥物</t>
-  </si>
-  <si>
-    <t>Mask</t>
-  </si>
-  <si>
-    <t>面具</t>
-  </si>
-  <si>
-    <t>Mask (full)</t>
-  </si>
-  <si>
-    <t>面具（全套）</t>
-  </si>
-  <si>
-    <t>Mask (functional)</t>
-  </si>
-  <si>
-    <t>面具（功能）</t>
-  </si>
-  <si>
-    <t>Mask (health)</t>
-  </si>
-  <si>
-    <t>面具（健康）</t>
-  </si>
-  <si>
-    <t>Mask (Minecraft mob)</t>
-  </si>
-  <si>
-    <t>面具（Minecraft 暴民）</t>
-  </si>
-  <si>
-    <t>Mass Effect</t>
-  </si>
-  <si>
-    <t>质量效应</t>
-  </si>
-  <si>
-    <t>Masters of the Universe</t>
-  </si>
-  <si>
-    <t>宇宙大师</t>
-  </si>
-  <si>
-    <t>Mathematical Symbol</t>
-  </si>
-  <si>
-    <t>数学符号</t>
-  </si>
-  <si>
-    <t>Mc Donalds</t>
-  </si>
-  <si>
-    <t>麦当劳</t>
-  </si>
-  <si>
-    <t>Meal</t>
-  </si>
-  <si>
-    <t>餐点</t>
-  </si>
-  <si>
-    <t>Meat</t>
-  </si>
-  <si>
-    <t>肉类</t>
-  </si>
-  <si>
-    <t>Medieval</t>
-  </si>
-  <si>
-    <t>中世纪</t>
-  </si>
-  <si>
-    <t>Medieval Tavern</t>
-  </si>
-  <si>
-    <t>中世纪酒馆</t>
-  </si>
-  <si>
-    <t>Medieval Warfare Helmet</t>
-  </si>
-  <si>
-    <t>中世纪战争头盔</t>
-  </si>
-  <si>
-    <t>MediEvil</t>
-  </si>
-  <si>
-    <t>中世纪邪恶</t>
-  </si>
-  <si>
-    <t>Mega Evolution</t>
-  </si>
-  <si>
-    <t>巨型进化</t>
-  </si>
-  <si>
-    <t>Megaman</t>
-  </si>
-  <si>
-    <t>大富翁</t>
-  </si>
-  <si>
-    <t>Megami Tensei</t>
-  </si>
-  <si>
-    <t>洛克王国</t>
-  </si>
-  <si>
-    <t>Mekakucity Actors</t>
-  </si>
-  <si>
-    <t>Mekakucity 演员</t>
-  </si>
-  <si>
-    <t>Meme</t>
-  </si>
-  <si>
-    <t>梅米</t>
-  </si>
-  <si>
-    <t>Meme (Doge)</t>
-  </si>
-  <si>
-    <t>米姆（斗牛犬）</t>
-  </si>
-  <si>
-    <t>Meme (Pepe)</t>
-  </si>
-  <si>
-    <t>米米（佩佩）</t>
-  </si>
-  <si>
-    <t>Metal</t>
-  </si>
-  <si>
-    <t>金属</t>
-  </si>
-  <si>
-    <t>Metal Gear</t>
-  </si>
-  <si>
-    <t>金属齿轮</t>
-  </si>
-  <si>
-    <t>Metro</t>
-  </si>
-  <si>
-    <t>地铁</t>
-  </si>
-  <si>
-    <t>Metroid</t>
-  </si>
-  <si>
-    <t>大都会</t>
-  </si>
-  <si>
-    <t>Mexico</t>
-  </si>
-  <si>
-    <t>墨西哥</t>
-  </si>
-  <si>
-    <t>Mickey Mouse</t>
-  </si>
-  <si>
-    <t>米老鼠</t>
-  </si>
-  <si>
-    <t>Military Equipment</t>
-  </si>
-  <si>
-    <t>军事装备</t>
-  </si>
-  <si>
-    <t>Minecraft April Fools</t>
-  </si>
-  <si>
-    <t>威廉与愚人节</t>
-  </si>
-  <si>
-    <t>Minecraft Bedrock Edition</t>
-  </si>
-  <si>
-    <t>威廉与基岩版</t>
-  </si>
-  <si>
-    <t>Minecraft Dungeons</t>
-  </si>
-  <si>
-    <t>威廉与地下城</t>
-  </si>
-  <si>
-    <t>Minecraft Earth</t>
-  </si>
-  <si>
-    <t>威廉与地球</t>
-  </si>
-  <si>
-    <t>Minecraft Education Edition</t>
-  </si>
-  <si>
-    <t>威廉与教育版</t>
-  </si>
-  <si>
-    <t>Minecraft Legends</t>
-  </si>
-  <si>
-    <t>威廉与传奇</t>
-  </si>
-  <si>
-    <t>Minecraft Live</t>
-  </si>
-  <si>
-    <t>威廉与生活</t>
-  </si>
-  <si>
-    <t>Minecraft Movie</t>
-  </si>
-  <si>
-    <t>威廉与电影</t>
-  </si>
-  <si>
-    <t>Minecraft Story Mode</t>
-  </si>
-  <si>
-    <t>我的世界故事模式</t>
-  </si>
-  <si>
-    <t>Miner</t>
-  </si>
-  <si>
-    <t>矿工</t>
-  </si>
-  <si>
-    <t>Minesweeper</t>
-  </si>
-  <si>
-    <t>扫雷</t>
-  </si>
-  <si>
-    <t>Miraculous: Tales of Ladybug &amp; Cat Noir</t>
-  </si>
-  <si>
-    <t>奇迹 瓢虫和黑猫的故事</t>
-  </si>
-  <si>
-    <t>Mirai Nikki (Future Diary)</t>
-  </si>
-  <si>
-    <t>未来日记</t>
-  </si>
-  <si>
-    <t>Mirror's Edge</t>
-  </si>
-  <si>
-    <t>镜之边缘</t>
-  </si>
-  <si>
-    <t>Miss Kobayashi's Dragon Maid</t>
-  </si>
-  <si>
-    <t>小林小姐的龙女仆</t>
-  </si>
-  <si>
-    <t>Mizuno's Resource Pack</t>
-  </si>
-  <si>
-    <t>水野的资源包</t>
-  </si>
-  <si>
-    <t>Moana</t>
-  </si>
-  <si>
-    <t>莫阿娜</t>
-  </si>
-  <si>
-    <t>Modern Warfare Helmet</t>
-  </si>
-  <si>
-    <t>现代战争头盔</t>
-  </si>
-  <si>
-    <t>Money</t>
-  </si>
-  <si>
-    <t>金钱</t>
-  </si>
-  <si>
-    <t>Money Heist</t>
-  </si>
-  <si>
-    <t>抢钱</t>
-  </si>
-  <si>
-    <t>Monitor</t>
-  </si>
-  <si>
-    <t>监视器</t>
-  </si>
-  <si>
-    <t>Monkey Island</t>
-  </si>
-  <si>
-    <t>猴岛</t>
-  </si>
-  <si>
-    <t>Monocle</t>
-  </si>
-  <si>
-    <t>单片眼镜</t>
-  </si>
-  <si>
-    <t>Monster High</t>
-  </si>
-  <si>
-    <t>怪物高塔</t>
-  </si>
-  <si>
-    <t>Monster Hunter</t>
-  </si>
-  <si>
-    <t>怪物猎人</t>
-  </si>
-  <si>
-    <t>Monsters Inc</t>
-  </si>
-  <si>
-    <t>怪物公司</t>
-  </si>
-  <si>
-    <t>Moomin</t>
-  </si>
-  <si>
-    <t>姆明</t>
-  </si>
-  <si>
-    <t>Mortal Kombat</t>
-  </si>
-  <si>
-    <t>真人快打</t>
-  </si>
-  <si>
-    <t>Mounts of Mayhem</t>
-  </si>
-  <si>
-    <t>混乱坐骑</t>
-  </si>
-  <si>
-    <t>Mouthwashing</t>
-  </si>
-  <si>
-    <t>漱口水</t>
-  </si>
-  <si>
-    <t>Mr. Bean</t>
-  </si>
-  <si>
-    <t>憨豆先生</t>
-  </si>
-  <si>
-    <t>Mulan</t>
-  </si>
-  <si>
-    <t>花木兰</t>
-  </si>
-  <si>
-    <t>Mundo Gaturro</t>
-  </si>
-  <si>
-    <t>加图罗世界</t>
-  </si>
-  <si>
-    <t>Muppets</t>
-  </si>
-  <si>
-    <t>布偶团</t>
-  </si>
-  <si>
-    <t>Murder Drones</t>
-  </si>
-  <si>
-    <t>杀人无人机</t>
-  </si>
-  <si>
-    <t>Mushroom</t>
-  </si>
-  <si>
-    <t>蘑菇</t>
-  </si>
-  <si>
-    <t>Mushroom (Biome)</t>
-  </si>
-  <si>
-    <t>蘑菇（生物群落）</t>
-  </si>
-  <si>
-    <t>Mushroom (Headwear)</t>
-  </si>
-  <si>
-    <t>蘑菇（头饰）</t>
-  </si>
-  <si>
-    <t>Music</t>
-  </si>
-  <si>
-    <t>音乐</t>
-  </si>
-  <si>
-    <t>Mustache</t>
-  </si>
-  <si>
-    <t>小胡子</t>
-  </si>
-  <si>
-    <t>My Deer Friend Nokotan</t>
-  </si>
-  <si>
-    <t>我的鹿朋友诺克丹</t>
-  </si>
-  <si>
-    <t>My Hero Academia</t>
-  </si>
-  <si>
-    <t>我的英雄学院</t>
-  </si>
-  <si>
-    <t>My Little Pony</t>
-  </si>
-  <si>
-    <t>我的小马</t>
-  </si>
-  <si>
-    <t>My Neighbor Totoro</t>
-  </si>
-  <si>
-    <t>我的邻居龙猫</t>
-  </si>
-  <si>
-    <t>My Singing Monsters</t>
-  </si>
-  <si>
-    <t>我的会唱歌的怪兽</t>
-  </si>
-  <si>
-    <t>Naruto</t>
-  </si>
-  <si>
-    <t>火影忍者</t>
-  </si>
-  <si>
-    <t>Nausicaä of the Valley of the Wind</t>
-  </si>
-  <si>
-    <t>风之谷的娜乌西卡</t>
-  </si>
-  <si>
-    <t>Nekopara</t>
-  </si>
-  <si>
-    <t>奈克帕拉</t>
-  </si>
-  <si>
-    <t>Neon Genesis Evangelion</t>
-  </si>
-  <si>
-    <t>霓虹创世纪福音战士</t>
-  </si>
-  <si>
-    <t>Nether (inspired)</t>
-  </si>
-  <si>
-    <t>何方神圣（灵感）</t>
-  </si>
-  <si>
-    <t>Nether (vanilla)</t>
-  </si>
-  <si>
-    <t>尼瑟斯（虚构）</t>
-  </si>
-  <si>
-    <t>Neutral Creature</t>
-  </si>
-  <si>
-    <t>中立生物</t>
-  </si>
-  <si>
-    <t>Neutral Person</t>
-  </si>
-  <si>
-    <t>中立人</t>
-  </si>
-  <si>
-    <t>New Year's Eve</t>
-  </si>
-  <si>
-    <t>新年前夜</t>
-  </si>
-  <si>
-    <t>NieR: Automata</t>
-  </si>
-  <si>
-    <t>尼尔：自动人形</t>
-  </si>
-  <si>
-    <t>Night in the Woods</t>
-  </si>
-  <si>
-    <t>森林之夜</t>
-  </si>
-  <si>
-    <t>Nightmare Before Christmas</t>
-  </si>
-  <si>
-    <t>圣诞夜</t>
-  </si>
-  <si>
-    <t>Ninja Turtles</t>
-  </si>
-  <si>
-    <t>忍者神龟</t>
-  </si>
-  <si>
-    <t>No Game No Life</t>
-  </si>
-  <si>
-    <t>无游戏不人生</t>
-  </si>
-  <si>
-    <t>No Man's Sky</t>
-  </si>
-  <si>
-    <t>无人天空</t>
-  </si>
-  <si>
-    <t>Noel's House Party</t>
-  </si>
-  <si>
-    <t>诺埃尔的家庭聚会</t>
-  </si>
-  <si>
-    <t>Norse Mythology</t>
-  </si>
-  <si>
-    <t>北欧神话</t>
-  </si>
-  <si>
-    <t>NPC (Education Edition)</t>
-  </si>
-  <si>
-    <t>人大（教育版）</t>
-  </si>
-  <si>
-    <t>Nuclear Fallout</t>
-  </si>
-  <si>
-    <t>核爆</t>
-  </si>
-  <si>
-    <t>Nuclear Throne</t>
-  </si>
-  <si>
-    <t>核王座</t>
-  </si>
-  <si>
-    <t>Number</t>
-  </si>
-  <si>
-    <t>数字</t>
-  </si>
-  <si>
-    <t>Nut</t>
-  </si>
-  <si>
-    <t>坚果</t>
-  </si>
-  <si>
-    <t>Ocean</t>
-  </si>
-  <si>
-    <t>海洋</t>
-  </si>
-  <si>
-    <t>Octodad</t>
-  </si>
-  <si>
-    <t>八爪鱼</t>
-  </si>
-  <si>
-    <t>Oddworld</t>
-  </si>
-  <si>
-    <t>奇异世界</t>
-  </si>
-  <si>
-    <t>OFF</t>
-  </si>
-  <si>
-    <t>关闭</t>
-  </si>
-  <si>
-    <t>Officer Cap</t>
-  </si>
-  <si>
-    <t>军官帽</t>
-  </si>
-  <si>
-    <t>Oggy and the Cockroaches</t>
-  </si>
-  <si>
-    <t>奥格和蟑螂</t>
-  </si>
-  <si>
-    <t>Okegom</t>
-  </si>
-  <si>
-    <t>Old</t>
-  </si>
-  <si>
-    <t>老</t>
-  </si>
-  <si>
-    <t>Oliver &amp; Co</t>
-  </si>
-  <si>
-    <t>奥利弗公司</t>
-  </si>
-  <si>
-    <t>Omori</t>
-  </si>
-  <si>
-    <t>大森</t>
-  </si>
-  <si>
-    <t>One Piece</t>
-  </si>
-  <si>
-    <t>One Punch Man</t>
-  </si>
-  <si>
-    <t>一拳超人</t>
-  </si>
-  <si>
-    <t>OneShot</t>
-  </si>
-  <si>
-    <t>Ongezellig</t>
-  </si>
-  <si>
-    <t>Onii-chan wa Oshimai</t>
-  </si>
-  <si>
-    <t>鬼子大岛</t>
-  </si>
-  <si>
-    <t>Open Source Objects</t>
-  </si>
-  <si>
-    <t>开源对象</t>
-  </si>
-  <si>
-    <t>Orb</t>
-  </si>
-  <si>
-    <t>Orc</t>
-  </si>
-  <si>
-    <t>兽人</t>
-  </si>
-  <si>
-    <t>Ore</t>
-  </si>
-  <si>
-    <t>矿石</t>
-  </si>
-  <si>
-    <t>Organs and Bodyparts</t>
-  </si>
-  <si>
-    <t>器官和肢体</t>
-  </si>
-  <si>
-    <t>Other Headgear</t>
-  </si>
-  <si>
-    <t>其他头饰</t>
-  </si>
-  <si>
-    <t>Other Illumination</t>
-  </si>
-  <si>
-    <t>其他照明</t>
-  </si>
-  <si>
-    <t>Other Mystic Creature</t>
-  </si>
-  <si>
-    <t>其他神秘生物</t>
-  </si>
-  <si>
-    <t>Outer Layer Block</t>
-  </si>
-  <si>
-    <t>外层方块</t>
-  </si>
-  <si>
-    <t>Overlord</t>
-  </si>
-  <si>
-    <t>霸主</t>
-  </si>
-  <si>
-    <t>Overwatch</t>
-  </si>
-  <si>
-    <t>守望先锋</t>
-  </si>
-  <si>
-    <t>Pac-Man</t>
-  </si>
-  <si>
-    <t>吃豆人</t>
-  </si>
-  <si>
-    <t>Pacific Rim</t>
-  </si>
-  <si>
-    <t>环太平洋</t>
-  </si>
-  <si>
-    <t>Pacifier</t>
-  </si>
-  <si>
-    <t>安抚奶嘴</t>
-  </si>
-  <si>
-    <t>Painted Face</t>
-  </si>
-  <si>
-    <t>彩绘脸谱</t>
-  </si>
-  <si>
-    <t>Pale Garden (inspired)</t>
-  </si>
-  <si>
-    <t>苍白花园（灵感来源）</t>
-  </si>
-  <si>
-    <t>Panda Bear</t>
-  </si>
-  <si>
-    <t>熊猫熊</t>
-  </si>
-  <si>
-    <t>Pans Labyrinth</t>
-  </si>
-  <si>
-    <t>平底锅迷宫</t>
-  </si>
-  <si>
-    <t>Papers Please</t>
-  </si>
-  <si>
-    <t>请出示证件</t>
-  </si>
-  <si>
-    <t>PaRappa the Rapper</t>
-  </si>
-  <si>
-    <t>说唱歌手 PaRappa</t>
-  </si>
-  <si>
-    <t>Party</t>
-  </si>
-  <si>
-    <t>派对</t>
-  </si>
-  <si>
-    <t>Pastries and Sweets</t>
-  </si>
-  <si>
-    <t>糕点和糖果</t>
-  </si>
-  <si>
-    <t>Paw Patrol</t>
-  </si>
-  <si>
-    <t>宠物小精灵</t>
-  </si>
-  <si>
-    <t>Payday</t>
-  </si>
-  <si>
-    <t>发薪日</t>
-  </si>
-  <si>
-    <t>Peanuts (Snoopy)</t>
-  </si>
-  <si>
-    <t>花生（史努比）</t>
-  </si>
-  <si>
-    <t>Penguin</t>
-  </si>
-  <si>
-    <t>企鹅</t>
-  </si>
-  <si>
-    <t>Peppa Pig</t>
-  </si>
-  <si>
-    <t>小猪佩帕</t>
-  </si>
-  <si>
-    <t>Periodic Table of Elements</t>
-  </si>
-  <si>
-    <t>元素周期表</t>
-  </si>
-  <si>
-    <t>Persona</t>
-  </si>
-  <si>
-    <t>角色</t>
-  </si>
-  <si>
-    <t>Pet Equipment</t>
-  </si>
-  <si>
-    <t>宠物装备</t>
-  </si>
-  <si>
-    <t>Peter Pan</t>
-  </si>
-  <si>
-    <t>小飞侠</t>
-  </si>
-  <si>
-    <t>Phantom</t>
-  </si>
-  <si>
-    <t>幻影</t>
-  </si>
-  <si>
-    <t>Phineas &amp; Ferb</t>
-  </si>
-  <si>
-    <t>菲尼亚斯和费伯</t>
-  </si>
-  <si>
-    <t>Pig</t>
-  </si>
-  <si>
-    <t>小猪</t>
-  </si>
-  <si>
-    <t>Piglin</t>
-  </si>
-  <si>
-    <t>猪林</t>
-  </si>
-  <si>
-    <t>Pigman</t>
-  </si>
-  <si>
-    <t>猪人</t>
-  </si>
-  <si>
-    <t>Pikmin</t>
-  </si>
-  <si>
-    <t>皮克明</t>
-  </si>
-  <si>
-    <t>Pingu</t>
-  </si>
-  <si>
-    <t>企鹅家族</t>
-  </si>
-  <si>
-    <t>Pink Panther</t>
-  </si>
-  <si>
-    <t>粉红豹</t>
-  </si>
-  <si>
-    <t>Pinky and the Brain</t>
-  </si>
-  <si>
-    <t>Pinocchio</t>
-  </si>
-  <si>
-    <t>木偶奇遇记</t>
-  </si>
-  <si>
-    <t>Pirates of the Caribbean</t>
-  </si>
-  <si>
-    <t>加勒比海盗</t>
-  </si>
-  <si>
-    <t>Pizza Tower</t>
-  </si>
-  <si>
-    <t>比萨塔</t>
-  </si>
-  <si>
-    <t>Planet</t>
-  </si>
-  <si>
-    <t>星球</t>
-  </si>
-  <si>
-    <t>Plants vs. Zombies</t>
-  </si>
-  <si>
-    <t>植物大战僵尸</t>
-  </si>
-  <si>
-    <t>Playerunknown's Battlegrounds</t>
-  </si>
-  <si>
-    <t>玩家世界</t>
-  </si>
-  <si>
-    <t>Pocahontas</t>
-  </si>
-  <si>
-    <t>风中奇缘</t>
-  </si>
-  <si>
-    <t>Pokeball</t>
-  </si>
-  <si>
-    <t>Pokemon</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 1</t>
-  </si>
-  <si>
-    <t>口袋妖怪 1 代</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 2</t>
-  </si>
-  <si>
-    <t>口袋妖怪 2 代</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 3</t>
-  </si>
-  <si>
-    <t>口袋妖怪第 3 代</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 4</t>
-  </si>
-  <si>
-    <t>口袋妖怪第 4 代</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 5</t>
-  </si>
-  <si>
-    <t>口袋妖怪第五代</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 6</t>
-  </si>
-  <si>
-    <t>口袋妖怪第六代</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 7</t>
-  </si>
-  <si>
-    <t>口袋妖怪第 7 代</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 8</t>
-  </si>
-  <si>
-    <t>口袋妖怪第 8 代</t>
-  </si>
-  <si>
-    <t>Pokemon Generation 9</t>
-  </si>
-  <si>
-    <t>口袋妖怪第 9 代</t>
-  </si>
-  <si>
-    <t>Pokemon Items</t>
-  </si>
-  <si>
-    <t>宠物小精灵道具</t>
-  </si>
-  <si>
-    <t>Pokemon Trainer</t>
-  </si>
-  <si>
-    <t>宠物小精灵训练师</t>
-  </si>
-  <si>
-    <t>Polar Bear</t>
-  </si>
-  <si>
-    <t>北极熊</t>
-  </si>
-  <si>
-    <t>Police</t>
-  </si>
-  <si>
-    <t>警察</t>
-  </si>
-  <si>
-    <t>Pom Poko</t>
-  </si>
-  <si>
-    <t>波姆波克</t>
-  </si>
-  <si>
-    <t>Ponyo</t>
-  </si>
-  <si>
-    <t>波妞</t>
-  </si>
-  <si>
-    <t>Pop Team Epic</t>
-  </si>
-  <si>
-    <t>流行史诗队</t>
-  </si>
-  <si>
-    <t>POPGOES</t>
-  </si>
-  <si>
-    <t>Poppy Playtime</t>
-  </si>
-  <si>
-    <t>Porco Rosso</t>
-  </si>
-  <si>
-    <t>Portal</t>
-  </si>
-  <si>
-    <t>传送门</t>
-  </si>
-  <si>
-    <t>Postman Pat</t>
-  </si>
-  <si>
-    <t>邮递员 Pat</t>
-  </si>
-  <si>
-    <t>Power Rangers</t>
-  </si>
-  <si>
-    <t>电力别动队</t>
-  </si>
-  <si>
-    <t>Powerpuff Girls</t>
-  </si>
-  <si>
-    <t>飞天小女警</t>
-  </si>
-  <si>
-    <t>Predator</t>
-  </si>
-  <si>
-    <t>掠食者</t>
-  </si>
-  <si>
-    <t>Present</t>
-  </si>
-  <si>
-    <t>礼物</t>
-  </si>
-  <si>
-    <t>Pride</t>
-  </si>
-  <si>
-    <t>骄傲</t>
-  </si>
-  <si>
-    <t>Primate</t>
-  </si>
-  <si>
-    <t>灵长类动物</t>
-  </si>
-  <si>
-    <t>Princess Mononoke</t>
-  </si>
-  <si>
-    <t>梦幻公主</t>
-  </si>
-  <si>
-    <t>Prof Layton</t>
-  </si>
-  <si>
-    <t>雷顿教授</t>
-  </si>
-  <si>
-    <t>Pumpkin</t>
-  </si>
-  <si>
-    <t>南瓜</t>
-  </si>
-  <si>
-    <t>Pumpkin (Lit)</t>
-  </si>
-  <si>
-    <t>南瓜（文学）</t>
-  </si>
-  <si>
-    <t>Punctuation Mark</t>
-  </si>
-  <si>
-    <t>标点符号</t>
-  </si>
-  <si>
-    <t>Quake</t>
-  </si>
-  <si>
-    <t>地震</t>
-  </si>
-  <si>
-    <t>R.E.P.O.</t>
-  </si>
-  <si>
-    <t>Rabbit</t>
-  </si>
-  <si>
-    <t>兔子</t>
-  </si>
-  <si>
-    <t>Railway</t>
-  </si>
-  <si>
-    <t>铁路</t>
-  </si>
-  <si>
-    <t>Rain World</t>
-  </si>
-  <si>
-    <t>雨世界</t>
-  </si>
-  <si>
-    <t>Ratatouille</t>
-  </si>
-  <si>
-    <t>料理鼠王</t>
-  </si>
-  <si>
-    <t>Ratchet &amp; Clank</t>
-  </si>
-  <si>
-    <t>棘轮与叮当</t>
-  </si>
-  <si>
-    <t>Re:Creators</t>
-  </si>
-  <si>
-    <t>Re:Zero</t>
-  </si>
-  <si>
-    <t>Re:零</t>
-  </si>
-  <si>
-    <t>Realm of the Mad God</t>
-  </si>
-  <si>
-    <t>狂神领域</t>
-  </si>
-  <si>
-    <t>Red Dead Redemption</t>
-  </si>
-  <si>
-    <t>红色死亡救赎</t>
-  </si>
-  <si>
-    <t>Red Riding Hood</t>
-  </si>
-  <si>
-    <t>小红帽</t>
-  </si>
-  <si>
-    <t>Redstone</t>
-  </si>
-  <si>
-    <t>红石</t>
-  </si>
-  <si>
-    <t>Regional Form Pokemon</t>
-  </si>
-  <si>
-    <t>地区形态小精灵</t>
-  </si>
-  <si>
-    <t>Regretavator</t>
-  </si>
-  <si>
-    <t>雷鬼</t>
-  </si>
-  <si>
-    <t>Regular Show</t>
-  </si>
-  <si>
-    <t>常规节目</t>
-  </si>
-  <si>
-    <t>Religion</t>
-  </si>
-  <si>
-    <t>宗教</t>
-  </si>
-  <si>
-    <t>Reptile</t>
-  </si>
-  <si>
-    <t>爬行动物</t>
-  </si>
-  <si>
-    <t>Rescue Rangers</t>
-  </si>
-  <si>
-    <t>救援别动队</t>
-  </si>
-  <si>
-    <t>Resident Evil</t>
-  </si>
-  <si>
-    <t>生化危机</t>
-  </si>
-  <si>
-    <t>Rhythm Heaven</t>
-  </si>
-  <si>
-    <t>节奏天堂</t>
-  </si>
-  <si>
-    <t>Ribbon</t>
-  </si>
-  <si>
-    <t>丝带</t>
-  </si>
-  <si>
-    <t>Rick and Morty</t>
-  </si>
-  <si>
-    <t>瑞克和莫蒂</t>
-  </si>
-  <si>
-    <t>Risk of Rain</t>
-  </si>
-  <si>
-    <t>雨的风险</t>
-  </si>
-  <si>
-    <t>Rival of Aether</t>
-  </si>
-  <si>
-    <t>乙太之敌</t>
-  </si>
-  <si>
-    <t>River</t>
-  </si>
-  <si>
-    <t>河</t>
-  </si>
-  <si>
-    <t>Riverdale</t>
-  </si>
-  <si>
-    <t>河谷</t>
-  </si>
-  <si>
-    <t>Robin Hood</t>
-  </si>
-  <si>
-    <t>罗宾汉</t>
-  </si>
-  <si>
-    <t>Roblox</t>
-  </si>
-  <si>
-    <t>机器人世界</t>
-  </si>
-  <si>
-    <t>RoboCop</t>
-  </si>
-  <si>
-    <t>机械战警</t>
-  </si>
-  <si>
-    <t>Robot</t>
-  </si>
-  <si>
-    <t>机器人</t>
-  </si>
-  <si>
-    <t>Rocky</t>
-  </si>
-  <si>
-    <t>洛奇</t>
-  </si>
-  <si>
-    <t>Rocky Horror Picture Show</t>
-  </si>
-  <si>
-    <t>洛基恐怖画展</t>
-  </si>
-  <si>
-    <t>Rodent</t>
-  </si>
-  <si>
-    <t>啮齿动物</t>
-  </si>
-  <si>
-    <t>Rotated Entity</t>
-  </si>
-  <si>
-    <t>旋转实体</t>
-  </si>
-  <si>
-    <t>Royal Headgear</t>
-  </si>
-  <si>
-    <t>皇家头饰</t>
-  </si>
-  <si>
-    <t>Rune</t>
-  </si>
-  <si>
-    <t>符文</t>
-  </si>
-  <si>
-    <t>Runescape</t>
-  </si>
-  <si>
-    <t>RWBY</t>
-  </si>
-  <si>
-    <t>Sackboy: A Big Adventure</t>
-  </si>
-  <si>
-    <t>萨克男孩 大冒险</t>
-  </si>
-  <si>
-    <t>Sad Creature</t>
-  </si>
-  <si>
-    <t>悲伤生物</t>
-  </si>
-  <si>
-    <t>Sad Person</t>
-  </si>
-  <si>
-    <t>悲伤的人</t>
-  </si>
-  <si>
-    <t>Safari (Other)</t>
-  </si>
-  <si>
-    <t>野生动物园（其他）</t>
-  </si>
-  <si>
-    <t>Saga of Tanya the Evil</t>
-  </si>
-  <si>
-    <t>塔尼亚传奇</t>
-  </si>
-  <si>
-    <t>Sailor Moon</t>
-  </si>
-  <si>
-    <t>美少女战士</t>
-  </si>
-  <si>
-    <t>Sakurasou no Pet na Kanojo</t>
-  </si>
-  <si>
-    <t>樱花宠物的卡诺乔</t>
-  </si>
-  <si>
-    <t>Samurai Helmet</t>
-  </si>
-  <si>
-    <t>武士头盔</t>
-  </si>
-  <si>
-    <t>Satisfactory</t>
-  </si>
-  <si>
-    <t>满意</t>
-  </si>
-  <si>
-    <t>Saw</t>
-  </si>
-  <si>
-    <t>锯</t>
-  </si>
-  <si>
-    <t>Scarf</t>
-  </si>
-  <si>
-    <t>围巾</t>
-  </si>
-  <si>
-    <t>Scooby-Doo</t>
-  </si>
-  <si>
-    <t>史酷比</t>
-  </si>
-  <si>
-    <t>SCP Containment Breach</t>
-  </si>
-  <si>
-    <t>SCP 隔离破坏</t>
-  </si>
-  <si>
-    <t>Scream</t>
-  </si>
-  <si>
-    <t>尖叫</t>
-  </si>
-  <si>
-    <t>Scribblenauts</t>
-  </si>
-  <si>
-    <t>涂鸦游戏</t>
-  </si>
-  <si>
-    <t>Sea of Thieves</t>
-  </si>
-  <si>
-    <t>Seafarer</t>
-  </si>
-  <si>
-    <t>海员</t>
-  </si>
-  <si>
-    <t>Seraph of the End</t>
-  </si>
-  <si>
-    <t>末日塞拉夫</t>
-  </si>
-  <si>
-    <t>Serial Experiments Lain</t>
-  </si>
-  <si>
-    <t>莱恩系列实验</t>
-  </si>
-  <si>
-    <t>Sesame Street</t>
-  </si>
-  <si>
-    <t>芝麻街</t>
-  </si>
-  <si>
-    <t>Seven Deadly Sins</t>
-  </si>
-  <si>
-    <t>七宗罪</t>
-  </si>
-  <si>
-    <t>Shadow of the Colossus</t>
-  </si>
-  <si>
-    <t>巨人之影</t>
-  </si>
-  <si>
-    <t>Shadows of Mordor</t>
-  </si>
-  <si>
-    <t>魔多之影</t>
-  </si>
-  <si>
-    <t>Sheep</t>
-  </si>
-  <si>
-    <t>绵羊</t>
-  </si>
-  <si>
-    <t>Sherlock Holmes</t>
-  </si>
-  <si>
-    <t>福尔摩斯探案</t>
-  </si>
-  <si>
-    <t>Shigatsu wa Kimi no Uso</t>
-  </si>
-  <si>
-    <t>重松与木之臼</t>
-  </si>
-  <si>
-    <t>Shimoneta</t>
-  </si>
-  <si>
-    <t>下田</t>
-  </si>
-  <si>
-    <t>Shiny Pokemon</t>
-  </si>
-  <si>
-    <t>闪亮的小精灵</t>
-  </si>
-  <si>
-    <t>Shipping</t>
-  </si>
-  <si>
-    <t>船运</t>
-  </si>
-  <si>
-    <t>Shovel Knight</t>
-  </si>
-  <si>
-    <t>铲子骑士</t>
-  </si>
-  <si>
-    <t>Shrek</t>
-  </si>
-  <si>
-    <t>史莱克</t>
-  </si>
-  <si>
-    <t>Shulker</t>
-  </si>
-  <si>
-    <t>舒尔克</t>
-  </si>
-  <si>
-    <t>Silent Hill</t>
-  </si>
-  <si>
-    <t>寂静岭</t>
-  </si>
-  <si>
-    <t>SilvaGunner</t>
-  </si>
-  <si>
-    <t>席尔瓦枪手</t>
-  </si>
-  <si>
-    <t>Simpsons</t>
-  </si>
-  <si>
-    <t>辛普森一家</t>
-  </si>
-  <si>
-    <t>Skeleton</t>
-  </si>
-  <si>
-    <t>骷髅</t>
-  </si>
-  <si>
-    <t>Skeleton (Vanilla)</t>
-  </si>
-  <si>
-    <t>骷髅（香草）</t>
-  </si>
-  <si>
-    <t>Skeptical Creature</t>
-  </si>
-  <si>
-    <t>骷髅生物</t>
-  </si>
-  <si>
-    <t>Skeptical Person</t>
-  </si>
-  <si>
-    <t>骷髅人</t>
-  </si>
-  <si>
-    <t>Skullgirls</t>
-  </si>
-  <si>
-    <t>骷髅女孩</t>
-  </si>
-  <si>
-    <t>Skyrim</t>
-  </si>
-  <si>
-    <t>天际</t>
-  </si>
-  <si>
-    <t>Sleeping Beauty</t>
-  </si>
-  <si>
-    <t>睡美人</t>
-  </si>
-  <si>
-    <t>Sleeping Creature</t>
-  </si>
-  <si>
-    <t>沉睡的生物</t>
-  </si>
-  <si>
-    <t>Sleeping Person</t>
-  </si>
-  <si>
-    <t>沉睡的人</t>
-  </si>
-  <si>
-    <t>Sliced</t>
-  </si>
-  <si>
-    <t>切片</t>
-  </si>
-  <si>
-    <t>Slime</t>
-  </si>
-  <si>
-    <t>史莱姆</t>
-  </si>
-  <si>
-    <t>Slime (Vanilla)</t>
-  </si>
-  <si>
-    <t>粘液（香草）</t>
-  </si>
-  <si>
-    <t>Slime Rancher</t>
-  </si>
-  <si>
-    <t>粘液牧场主</t>
-  </si>
-  <si>
-    <t>Slimefun</t>
-  </si>
-  <si>
-    <t>Sly Cooper</t>
-  </si>
-  <si>
-    <t>狡猾的库珀</t>
-  </si>
-  <si>
-    <t>Smite Gods</t>
-  </si>
-  <si>
-    <t>Smoking</t>
-  </si>
-  <si>
-    <t>吸烟</t>
-  </si>
-  <si>
-    <t>Smurfs</t>
-  </si>
-  <si>
-    <t>蓝精灵</t>
-  </si>
-  <si>
-    <t>Snow Fight</t>
-  </si>
-  <si>
-    <t>雪战</t>
-  </si>
-  <si>
-    <t>Snow Sculpture</t>
-  </si>
-  <si>
-    <t>雪雕</t>
-  </si>
-  <si>
-    <t>Snow White and the Seven Dwarfs</t>
-  </si>
-  <si>
-    <t>白雪公主和七个小矮人</t>
-  </si>
-  <si>
-    <t>Songs of War</t>
-  </si>
-  <si>
-    <t>战歌</t>
-  </si>
-  <si>
-    <t>Sonic the Hedgehog</t>
-  </si>
-  <si>
-    <t>刺猬索尼克</t>
-  </si>
-  <si>
-    <t>Soul Knight</t>
-  </si>
-  <si>
-    <t>灵魂骑士</t>
-  </si>
-  <si>
-    <t>South Park</t>
-  </si>
-  <si>
-    <t>南方公园</t>
-  </si>
-  <si>
-    <t>Space Travel</t>
-  </si>
-  <si>
-    <t>太空旅行</t>
-  </si>
-  <si>
-    <t>Spawn Egg</t>
-  </si>
-  <si>
-    <t>再生蛋</t>
-  </si>
-  <si>
-    <t>Spawner</t>
-  </si>
-  <si>
-    <t>产卵器</t>
-  </si>
-  <si>
-    <t>Spelunky</t>
-  </si>
-  <si>
-    <t>蜘蛛侠</t>
-  </si>
-  <si>
-    <t>Spider</t>
-  </si>
-  <si>
-    <t>蜘蛛</t>
-  </si>
-  <si>
-    <t>Spider (Vanilla)</t>
-  </si>
-  <si>
-    <t>蜘蛛（香草）</t>
-  </si>
-  <si>
-    <t>Spiderman</t>
-  </si>
-  <si>
-    <t>Spirited Away</t>
-  </si>
-  <si>
-    <t>飞驰人生</t>
-  </si>
-  <si>
-    <t>Splatoon</t>
-  </si>
-  <si>
-    <t>魂斗罗</t>
-  </si>
-  <si>
-    <t>Spongebob Squarepants</t>
-  </si>
-  <si>
-    <t>海绵宝宝</t>
-  </si>
-  <si>
-    <t>Spooky's Jump Scare Mansion</t>
-  </si>
-  <si>
-    <t>幽灵跳跃惊吓屋</t>
-  </si>
-  <si>
-    <t>Spore</t>
-  </si>
-  <si>
-    <t>孢子</t>
-  </si>
-  <si>
-    <t>Sport</t>
-  </si>
-  <si>
-    <t>体育</t>
-  </si>
-  <si>
-    <t>Spreads</t>
-  </si>
-  <si>
-    <t>传播</t>
-  </si>
-  <si>
-    <t>Spring to Life</t>
-  </si>
-  <si>
-    <t>生命之泉</t>
-  </si>
-  <si>
-    <t>Spy x Family</t>
-  </si>
-  <si>
-    <t>间谍 x 家庭</t>
-  </si>
-  <si>
-    <t>Spyro</t>
-  </si>
-  <si>
-    <t>斯派罗</t>
-  </si>
-  <si>
-    <t>Squid Game</t>
-  </si>
-  <si>
-    <t>乌贼游戏</t>
-  </si>
-  <si>
-    <t>St. Patrick's Day</t>
-  </si>
-  <si>
-    <t>圣帕特里克节</t>
-  </si>
-  <si>
-    <t>StackUp</t>
-  </si>
-  <si>
-    <t>叠叠乐</t>
-  </si>
-  <si>
-    <t>Star Fox</t>
-  </si>
-  <si>
-    <t>星际迷航</t>
-  </si>
-  <si>
-    <t>Star Trek</t>
-  </si>
-  <si>
-    <t>Star vs the Forces of Evil</t>
-  </si>
-  <si>
-    <t>明星大战邪恶势力</t>
-  </si>
-  <si>
-    <t>Star Wars</t>
-  </si>
-  <si>
-    <t>星球大战</t>
-  </si>
-  <si>
-    <t>Star Wars Helmet</t>
-  </si>
-  <si>
-    <t>星球大战头盔</t>
-  </si>
-  <si>
-    <t>Star Wars Trooper Helmet</t>
-  </si>
-  <si>
-    <t>星球大战士兵头盔</t>
-  </si>
-  <si>
-    <t>Starbucks</t>
-  </si>
-  <si>
-    <t>星巴克</t>
-  </si>
-  <si>
-    <t>StarCraft</t>
-  </si>
-  <si>
-    <t>Stardew Valley</t>
-  </si>
-  <si>
-    <t>星露谷</t>
-  </si>
-  <si>
-    <t>Starter Pokemon</t>
-  </si>
-  <si>
-    <t>入门小精灵</t>
-  </si>
-  <si>
-    <t>Stationery</t>
-  </si>
-  <si>
-    <t>文具</t>
-  </si>
-  <si>
-    <t>Steampunk</t>
-  </si>
-  <si>
-    <t>蒸汽朋克</t>
-  </si>
-  <si>
-    <t>Steins;Gate</t>
-  </si>
-  <si>
-    <t>蒸汽之门</t>
-  </si>
-  <si>
-    <t>Steve</t>
-  </si>
-  <si>
-    <t>史蒂夫</t>
-  </si>
-  <si>
-    <t>Steven Universe</t>
-  </si>
-  <si>
-    <t>史蒂芬宇宙</t>
-  </si>
-  <si>
-    <t>Stone</t>
-  </si>
-  <si>
-    <t>石头</t>
-  </si>
-  <si>
-    <t>Storage (other)</t>
-  </si>
-  <si>
-    <t>存储（其他）</t>
-  </si>
-  <si>
-    <t>Stranger Things</t>
-  </si>
-  <si>
-    <t>怪奇物语</t>
-  </si>
-  <si>
-    <t>Street Fighter</t>
-  </si>
-  <si>
-    <t>街头霸王</t>
-  </si>
-  <si>
-    <t>Strider</t>
-  </si>
-  <si>
-    <t>黾</t>
-  </si>
-  <si>
-    <t>Subnautica</t>
-  </si>
-  <si>
-    <t>Summer</t>
-  </si>
-  <si>
-    <t>夏季</t>
-  </si>
-  <si>
-    <t>Sunglasses</t>
-  </si>
-  <si>
-    <t>太阳镜</t>
-  </si>
-  <si>
-    <t>Super Mario</t>
-  </si>
-  <si>
-    <t>超级马里奥</t>
-  </si>
-  <si>
-    <t>Supernatural</t>
-  </si>
-  <si>
-    <t>超自然</t>
-  </si>
-  <si>
-    <t>Surprised Creature</t>
-  </si>
-  <si>
-    <t>惊讶的生物</t>
-  </si>
-  <si>
-    <t>Surprised Person</t>
-  </si>
-  <si>
-    <t>惊讶的人</t>
-  </si>
-  <si>
-    <t>Sushi</t>
-  </si>
-  <si>
-    <t>寿司</t>
-  </si>
-  <si>
-    <t>Swamp</t>
-  </si>
-  <si>
-    <t>沼泽</t>
-  </si>
-  <si>
-    <t>Sword Art Online</t>
-  </si>
-  <si>
-    <t>剑侠情缘</t>
-  </si>
-  <si>
-    <t>TaleSpin</t>
-  </si>
-  <si>
-    <t>Tangled</t>
-  </si>
-  <si>
-    <t>唐吉诃德</t>
-  </si>
-  <si>
-    <t>Tattletail</t>
-  </si>
-  <si>
-    <t>小尾巴</t>
-  </si>
-  <si>
-    <t>Team Fortress 2</t>
-  </si>
-  <si>
-    <t>团队要塞 2</t>
-  </si>
-  <si>
-    <t>Teletubbies</t>
-  </si>
-  <si>
-    <t>天线宝宝</t>
-  </si>
-  <si>
-    <t>Terraria</t>
-  </si>
-  <si>
-    <t>泰拉瑞亚</t>
-  </si>
-  <si>
-    <t>Terraria (Calamity)</t>
-  </si>
-  <si>
-    <t>泰拉瑞亚（灾难）</t>
-  </si>
-  <si>
-    <t>Tetris</t>
-  </si>
-  <si>
-    <t>俄罗斯方块</t>
-  </si>
-  <si>
-    <t>Thanksgiving</t>
-  </si>
-  <si>
-    <t>感恩节</t>
-  </si>
-  <si>
-    <t>That Time I Got Reincarnated as a Slime</t>
-  </si>
-  <si>
-    <t>那次我转世成了史莱姆</t>
-  </si>
-  <si>
-    <t>Thaumcraft</t>
-  </si>
-  <si>
-    <t>泰姆工艺</t>
-  </si>
-  <si>
-    <t>The Adventures of Tintin</t>
-  </si>
-  <si>
-    <t>丁丁历险记</t>
-  </si>
-  <si>
-    <t>The Amazing Digital Circus</t>
-  </si>
-  <si>
-    <t>神奇的数字马戏团</t>
-  </si>
-  <si>
-    <t>The Amazing World of Gumball</t>
-  </si>
-  <si>
-    <t>口香糖球的奇妙世界</t>
-  </si>
-  <si>
-    <t>The Binding of Isaac</t>
-  </si>
-  <si>
-    <t>以撒的结合</t>
-  </si>
-  <si>
-    <t>The Boys</t>
-  </si>
-  <si>
-    <t>男孩</t>
-  </si>
-  <si>
-    <t>The Cat Returns</t>
-  </si>
-  <si>
-    <t>猫咪归来</t>
-  </si>
-  <si>
-    <t>The Conjuring</t>
-  </si>
-  <si>
-    <t>魔术师</t>
-  </si>
-  <si>
-    <t>The Copper Age</t>
-  </si>
-  <si>
-    <t>铜器时代</t>
-  </si>
-  <si>
-    <t>The Emperor's New Groove</t>
-  </si>
-  <si>
-    <t>皇帝的新装</t>
-  </si>
-  <si>
-    <t>The English Ensemble Stars</t>
-  </si>
-  <si>
-    <t>英国合奏明星</t>
-  </si>
-  <si>
-    <t>The Fairly OddParents</t>
-  </si>
-  <si>
-    <t>奇异父母</t>
-  </si>
-  <si>
-    <t>The Finals</t>
-  </si>
-  <si>
-    <t>总决赛</t>
-  </si>
-  <si>
-    <t>The Flash</t>
-  </si>
-  <si>
-    <t>闪电侠</t>
-  </si>
-  <si>
-    <t>The Flintstones</t>
-  </si>
-  <si>
-    <t>打火石</t>
-  </si>
-  <si>
-    <t>The Fly</t>
-  </si>
-  <si>
-    <t>苍蝇</t>
-  </si>
-  <si>
-    <t>The Garden Awakens</t>
-  </si>
-  <si>
-    <t>花园觉醒</t>
-  </si>
-  <si>
-    <t>The Good Dinosaur</t>
-  </si>
-  <si>
-    <t>好恐龙</t>
-  </si>
-  <si>
-    <t>The Great Mouse Detective</t>
-  </si>
-  <si>
-    <t>老鼠大侦探</t>
-  </si>
-  <si>
-    <t>The Grim Adventures of Billy &amp; Mandy</t>
-  </si>
-  <si>
-    <t>比利和曼迪的严峻历险</t>
-  </si>
-  <si>
-    <t>The Hunchback of Notre Dame</t>
-  </si>
-  <si>
-    <t>圣母院驼背</t>
-  </si>
-  <si>
-    <t>The Iron Giant</t>
-  </si>
-  <si>
-    <t>钢铁巨人</t>
-  </si>
-  <si>
-    <t>The Last Guardian</t>
-  </si>
-  <si>
-    <t>最后的守护者</t>
-  </si>
-  <si>
-    <t>The Last of Us</t>
-  </si>
-  <si>
-    <t>最后的我们</t>
-  </si>
-  <si>
-    <t>The Legend of Zelda</t>
-  </si>
-  <si>
-    <t>塞尔达传说</t>
-  </si>
-  <si>
-    <t>The Lorax</t>
-  </si>
-  <si>
-    <t>洛莱克斯</t>
-  </si>
-  <si>
-    <t>The Neverhood</t>
-  </si>
-  <si>
-    <t>梦幻童年</t>
-  </si>
-  <si>
-    <t>The Owl House</t>
-  </si>
-  <si>
-    <t>猫头鹰之家</t>
-  </si>
-  <si>
-    <t>The Princess and the Frog</t>
-  </si>
-  <si>
-    <t>公主与青蛙</t>
-  </si>
-  <si>
-    <t>The Ren &amp; Stimpy Show</t>
-  </si>
-  <si>
-    <t>任和史提比秀</t>
-  </si>
-  <si>
-    <t>The Road to El Dorado</t>
-  </si>
-  <si>
-    <t>通往埃尔多拉多之路</t>
-  </si>
-  <si>
-    <t>The Texas Chainsaw Massacre</t>
-  </si>
-  <si>
-    <t>德州电锯杀人狂</t>
-  </si>
-  <si>
-    <t>The Three Caballeros</t>
-  </si>
-  <si>
-    <t>三个角斗士</t>
-  </si>
-  <si>
-    <t>The Walten Files</t>
-  </si>
-  <si>
-    <t>华腾档案</t>
-  </si>
-  <si>
-    <t>The Woody Woodpecker Show</t>
-  </si>
-  <si>
-    <t>啄木鸟伍迪秀</t>
-  </si>
-  <si>
-    <t>Thomas &amp; Friends</t>
-  </si>
-  <si>
-    <t>托马斯和朋友</t>
-  </si>
-  <si>
-    <t>Thor</t>
-  </si>
-  <si>
-    <t>雷神</t>
-  </si>
-  <si>
-    <t>Those Nights at Rachel's</t>
-  </si>
-  <si>
-    <t>雷切尔的那些夜晚</t>
-  </si>
-  <si>
-    <t>Tinker's Construct</t>
-  </si>
-  <si>
-    <t>修补匠的构造</t>
-  </si>
-  <si>
-    <t>Titanfall</t>
-  </si>
-  <si>
-    <t>泰坦陨落</t>
-  </si>
-  <si>
-    <t>Tokyo Ghoul</t>
-  </si>
-  <si>
-    <t>东京食尸鬼</t>
-  </si>
-  <si>
-    <t>Tom and Jerry</t>
-  </si>
-  <si>
-    <t>汤姆和杰瑞</t>
-  </si>
-  <si>
-    <t>Tomb Raider</t>
-  </si>
-  <si>
-    <t>古墓丽影</t>
-  </si>
-  <si>
-    <t>Tomorrow's Pioneers</t>
-  </si>
-  <si>
-    <t>明日先锋</t>
-  </si>
-  <si>
-    <t>Tooth Gap</t>
-  </si>
-  <si>
-    <t>齿隙</t>
-  </si>
-  <si>
-    <t>Toradora</t>
-  </si>
-  <si>
-    <t>Total Drama Island</t>
-  </si>
-  <si>
-    <t>全剧岛</t>
-  </si>
-  <si>
-    <t>Touhou Project</t>
-  </si>
-  <si>
-    <t>东宝计划</t>
-  </si>
-  <si>
-    <t>Toy</t>
-  </si>
-  <si>
-    <t>玩具</t>
-  </si>
-  <si>
-    <t>Toy Story</t>
-  </si>
-  <si>
-    <t>玩具总动员</t>
-  </si>
-  <si>
-    <t>Traffic</t>
-  </si>
-  <si>
-    <t>交通</t>
-  </si>
-  <si>
-    <t>Traffic Light</t>
-  </si>
-  <si>
-    <t>交通灯</t>
-  </si>
-  <si>
-    <t>Traffic Sign</t>
-  </si>
-  <si>
-    <t>交通标志</t>
-  </si>
-  <si>
-    <t>Trails and Tales</t>
-  </si>
-  <si>
-    <t>小径和故事</t>
-  </si>
-  <si>
-    <t>Transformers</t>
-  </si>
-  <si>
-    <t>变形金刚</t>
-  </si>
-  <si>
-    <t>Transformice</t>
-  </si>
-  <si>
-    <t>Transparent Head</t>
-  </si>
-  <si>
-    <t>透明头</t>
-  </si>
-  <si>
-    <t>Trash Can</t>
-  </si>
-  <si>
-    <t>垃圾桶</t>
-  </si>
-  <si>
-    <t>Treasure</t>
-  </si>
-  <si>
-    <t>宝藏</t>
-  </si>
-  <si>
-    <t>Treasure Planet</t>
-  </si>
-  <si>
-    <t>宝藏星球</t>
-  </si>
-  <si>
-    <t>Tricky Trials Update</t>
-  </si>
-  <si>
-    <t>棘手的考验更新</t>
-  </si>
-  <si>
-    <t>Tron</t>
-  </si>
-  <si>
-    <t>创</t>
-  </si>
-  <si>
-    <t>Turtle</t>
-  </si>
-  <si>
-    <t>乌龟</t>
-  </si>
-  <si>
-    <t>Twilight Forest</t>
-  </si>
-  <si>
-    <t>暮光森林</t>
-  </si>
-  <si>
-    <t>Twisted Wonderland</t>
-  </si>
-  <si>
-    <t>扭曲仙境</t>
-  </si>
-  <si>
-    <t>Ultrakill</t>
-  </si>
-  <si>
-    <t>超杀</t>
-  </si>
-  <si>
-    <t>Umineko - When They Cry</t>
-  </si>
-  <si>
-    <t>海之子 - 当他们哭泣</t>
-  </si>
-  <si>
-    <t>Undertale</t>
-  </si>
-  <si>
-    <t>地下物语</t>
-  </si>
-  <si>
-    <t>Undertale AU</t>
-  </si>
-  <si>
-    <t>暗黑 AU</t>
-  </si>
-  <si>
-    <t>Undertale Yellow</t>
-  </si>
-  <si>
-    <t>暗黑黄</t>
-  </si>
-  <si>
-    <t>Universal Symbol</t>
-  </si>
-  <si>
-    <t>宇宙符号</t>
-  </si>
-  <si>
-    <t>Up</t>
-  </si>
-  <si>
-    <t>向上</t>
-  </si>
-  <si>
-    <t>Urban Wildlife</t>
-  </si>
-  <si>
-    <t>城市野生动物</t>
-  </si>
-  <si>
-    <t>V for Vendetta</t>
-  </si>
-  <si>
-    <t>Valentines</t>
-  </si>
-  <si>
-    <t>情人节</t>
-  </si>
-  <si>
-    <t>Valorant</t>
-  </si>
-  <si>
-    <t>Vanilla (removed)</t>
-  </si>
-  <si>
-    <t>香草（已删除）</t>
-  </si>
-  <si>
-    <t>Vanilla Block</t>
-  </si>
-  <si>
-    <t>香草块</t>
-  </si>
-  <si>
-    <t>Vanilla Food</t>
-  </si>
-  <si>
-    <t>香草食品</t>
-  </si>
-  <si>
-    <t>Vanilla Helmet</t>
-  </si>
-  <si>
-    <t>香草头盔</t>
-  </si>
-  <si>
-    <t>Vanilla Item</t>
-  </si>
-  <si>
-    <t>香草物品</t>
-  </si>
-  <si>
-    <t>Vanilla Mob</t>
-  </si>
-  <si>
-    <t>香草暴徒</t>
-  </si>
-  <si>
-    <t>Vault Hunters</t>
-  </si>
-  <si>
-    <t>金库猎人</t>
-  </si>
-  <si>
-    <t>Vegetable</t>
-  </si>
-  <si>
-    <t>蔬菜</t>
-  </si>
-  <si>
-    <t>Vehicle</t>
-  </si>
-  <si>
-    <t>车辆</t>
-  </si>
-  <si>
-    <t>Vikings</t>
-  </si>
-  <si>
-    <t>维京人</t>
-  </si>
-  <si>
-    <t>Villager</t>
-  </si>
-  <si>
-    <t>村民</t>
-  </si>
-  <si>
-    <t>Villager (Desert)</t>
-  </si>
-  <si>
-    <t>村民（沙漠）</t>
-  </si>
-  <si>
-    <t>Villager (Jungle)</t>
-  </si>
-  <si>
-    <t>村民（丛林）</t>
-  </si>
-  <si>
-    <t>Villager (Plains)</t>
-  </si>
-  <si>
-    <t>村民（平原）</t>
-  </si>
-  <si>
-    <t>Villager (Savanna)</t>
-  </si>
-  <si>
-    <t>村民（草原）</t>
-  </si>
-  <si>
-    <t>Villager (Snowy Tundra)</t>
-  </si>
-  <si>
-    <t>村民（苔原雪原）</t>
-  </si>
-  <si>
-    <t>Villager (Swamp)</t>
-  </si>
-  <si>
-    <t>村民（沼泽）</t>
-  </si>
-  <si>
-    <t>Villager (Taiga)</t>
-  </si>
-  <si>
-    <t>村民（泰加针叶林）</t>
-  </si>
-  <si>
-    <t>Virtual Youtuber</t>
-  </si>
-  <si>
-    <t>虚拟优酷</t>
-  </si>
-  <si>
-    <t>Vocaloid</t>
-  </si>
-  <si>
-    <t>虚拟歌手</t>
-  </si>
-  <si>
-    <t>Voltron</t>
-  </si>
-  <si>
-    <t>伏特龙</t>
-  </si>
-  <si>
-    <t>Wakfu</t>
-  </si>
-  <si>
-    <t>若夫</t>
-  </si>
-  <si>
-    <t>Walking Dead</t>
-  </si>
-  <si>
-    <t>行尸走肉</t>
-  </si>
-  <si>
-    <t>Wall-E</t>
-  </si>
-  <si>
-    <t>华莱士与格罗米特</t>
-  </si>
-  <si>
-    <t>Wallace and Gromit</t>
-  </si>
-  <si>
-    <t>War of the Worlds</t>
-  </si>
-  <si>
-    <t>世界大战</t>
-  </si>
-  <si>
-    <t>Warcraft</t>
-  </si>
-  <si>
-    <t>魔兽争霸</t>
-  </si>
-  <si>
-    <t>Warframe</t>
-  </si>
-  <si>
-    <t>Warhammer</t>
-  </si>
-  <si>
-    <t>战锤</t>
-  </si>
-  <si>
-    <t>Warrior Cats</t>
-  </si>
-  <si>
-    <t>勇士猫</t>
-  </si>
-  <si>
-    <t>We Bear Bears</t>
-  </si>
-  <si>
-    <t>我们熊熊</t>
-  </si>
-  <si>
-    <t>We Happy Few</t>
-  </si>
-  <si>
-    <t>我们是快乐的少数</t>
-  </si>
-  <si>
-    <t>Weather</t>
-  </si>
-  <si>
-    <t>天气</t>
-  </si>
-  <si>
-    <t>Welcome Home</t>
-  </si>
-  <si>
-    <t>欢迎回家</t>
-  </si>
-  <si>
-    <t>Who is this?</t>
-  </si>
-  <si>
-    <t>这是谁？</t>
-  </si>
-  <si>
-    <t>Wild Update</t>
-  </si>
-  <si>
-    <t>野性更新</t>
-  </si>
-  <si>
-    <t>Wings of Fire</t>
-  </si>
-  <si>
-    <t>火之翼</t>
-  </si>
-  <si>
-    <t>Winnie the Pooh</t>
-  </si>
-  <si>
-    <t>小熊维尼</t>
-  </si>
-  <si>
-    <t>Winter</t>
-  </si>
-  <si>
-    <t>冬天</t>
-  </si>
-  <si>
-    <t>Witcher</t>
-  </si>
-  <si>
-    <t>巫师</t>
-  </si>
-  <si>
-    <t>Wonderful Wonder World</t>
-  </si>
-  <si>
-    <t>奇妙仙境</t>
-  </si>
-  <si>
-    <t>Wood</t>
-  </si>
-  <si>
-    <t>木头</t>
-  </si>
-  <si>
-    <t>Wool</t>
-  </si>
-  <si>
-    <t>羊毛</t>
-  </si>
-  <si>
-    <t>Work Safety Helmet</t>
-  </si>
-  <si>
-    <t>工作安全帽</t>
-  </si>
-  <si>
-    <t>Wreck It Ralph</t>
-  </si>
-  <si>
-    <t>无敌破坏王</t>
-  </si>
-  <si>
-    <t>Wybel</t>
-  </si>
-  <si>
-    <t>Wynncraft</t>
-  </si>
-  <si>
-    <t>X-Men</t>
-  </si>
-  <si>
-    <t>X 战警</t>
-  </si>
-  <si>
-    <t>Xenoblade Chronicles</t>
-  </si>
-  <si>
-    <t>Yandere Simulator</t>
-  </si>
-  <si>
-    <t>荡妇模拟器</t>
-  </si>
-  <si>
-    <t>Yellow Submarine</t>
-  </si>
-  <si>
-    <t>黄色潜水艇</t>
-  </si>
-  <si>
-    <t>Yokai</t>
-  </si>
-  <si>
-    <t>横行霸道</t>
-  </si>
-  <si>
-    <t>Yooka Laylee</t>
-  </si>
-  <si>
-    <t>Young</t>
-  </si>
-  <si>
-    <t>年轻</t>
-  </si>
-  <si>
-    <t>Youtube</t>
-  </si>
-  <si>
-    <t>Yu-Gi-Oh</t>
-  </si>
-  <si>
-    <t>游戏王</t>
-  </si>
-  <si>
-    <t>Yume Nikki</t>
-  </si>
-  <si>
-    <t>梦幻妮琪</t>
-  </si>
-  <si>
-    <t>Zero no Tsukaima</t>
-  </si>
-  <si>
-    <t>零之月</t>
-  </si>
-  <si>
-    <t>Zero Wing</t>
-  </si>
-  <si>
-    <t>零之翼</t>
-  </si>
-  <si>
-    <t>Zodiac Sign</t>
-  </si>
-  <si>
-    <t>黄道十二宫</t>
-  </si>
-  <si>
-    <t>Zombie</t>
-  </si>
-  <si>
-    <t>僵尸</t>
-  </si>
-  <si>
-    <t>Zombie (Vanilla)</t>
-  </si>
-  <si>
-    <t>僵尸（香草）</t>
-  </si>
-  <si>
-    <t>Zootopia</t>
   </si>
   <si>
     <t>Fall Drop</t>
@@ -7245,7 +7251,7 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:B1177"/>
+  <dimension ref="A1:B1178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane ySplit="1" activePane="bottomLeft" state="frozen" topLeftCell="A2"/>
@@ -16674,8 +16680,16 @@
         <v>2293</v>
       </c>
     </row>
+    <row r="1178" spans="1:2">
+      <c r="A1178" t="s">
+        <v>2294</v>
+      </c>
+      <c r="B1178" t="s">
+        <v>2295</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B1177"/>
+  <autoFilter ref="A1:B1178"/>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver"/>
